--- a/CA/JIRA/Plat Defects - Post Releases 7.6_7.7_7.8_8.0 cf v1-3 Found In Build Flag 280220.xlsx
+++ b/CA/JIRA/Plat Defects - Post Releases 7.6_7.7_7.8_8.0 cf v1-3 Found In Build Flag 280220.xlsx
@@ -15,18 +15,18 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BAE Systems Applied Intelligenc'!$A$1:$J$529</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'EIM PLAT - Master Post Release '!$W$1:$W$315</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'EIM PLAT - Master Post Release '!$L$1:$L$315</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="25" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7760" uniqueCount="1668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7799" uniqueCount="1668">
   <si>
     <t>Issue Type</t>
   </si>
@@ -5529,7 +5529,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5556,6 +5556,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5797,8 +5803,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="64051456"/>
-        <c:axId val="64061824"/>
+        <c:axId val="244553984"/>
+        <c:axId val="244568448"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5975,11 +5981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="64086016"/>
-        <c:axId val="64063744"/>
+        <c:axId val="244576256"/>
+        <c:axId val="244570368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64051456"/>
+        <c:axId val="244553984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6007,7 +6013,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64061824"/>
+        <c:crossAx val="244568448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6015,7 +6021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64061824"/>
+        <c:axId val="244568448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6049,12 +6055,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64051456"/>
+        <c:crossAx val="244553984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64063744"/>
+        <c:axId val="244570368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6064,12 +6070,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64086016"/>
+        <c:crossAx val="244576256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="64086016"/>
+        <c:axId val="244576256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6079,7 +6085,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64063744"/>
+        <c:crossAx val="244570368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7054,11 +7060,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="66395520"/>
-        <c:axId val="66409600"/>
+        <c:axId val="245222784"/>
+        <c:axId val="245232768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66395520"/>
+        <c:axId val="245222784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7067,7 +7073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66409600"/>
+        <c:crossAx val="245232768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7075,7 +7081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66409600"/>
+        <c:axId val="245232768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7086,7 +7092,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66395520"/>
+        <c:crossAx val="245222784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7234,8 +7240,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="66579840"/>
-        <c:axId val="66979328"/>
+        <c:axId val="244993408"/>
+        <c:axId val="244999680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7317,11 +7323,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66579840"/>
-        <c:axId val="66979328"/>
+        <c:axId val="244993408"/>
+        <c:axId val="244999680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66579840"/>
+        <c:axId val="244993408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7335,7 +7341,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66979328"/>
+        <c:crossAx val="244999680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7343,7 +7349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66979328"/>
+        <c:axId val="244999680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7358,7 +7364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66579840"/>
+        <c:crossAx val="244993408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7669,10 +7675,414 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Custom field (Found in Build)" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="7.1" maxValue="7.7"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="7.1" maxValue="7.7" count="88">
+        <n v="7.6"/>
+        <s v="7.4.0.12"/>
+        <s v="7.1.1.10"/>
+        <s v="7.2.0.15"/>
+        <s v="7.2.1.50"/>
+        <s v="7.2.1.53"/>
+        <s v="7.4.0.11"/>
+        <s v="7.4.0.14"/>
+        <s v="7.2.1.26"/>
+        <s v="6.1.2.122"/>
+        <s v="7.5.0.6"/>
+        <s v="7.5.0.3"/>
+        <n v="7.4"/>
+        <n v="7.5"/>
+        <s v="7.6.0.4"/>
+        <s v="7.2.1.49"/>
+        <s v="7.6.0.7"/>
+        <s v="7.3.1.5"/>
+        <s v="7.1.1.7"/>
+        <s v="7.3.1.6"/>
+        <s v="7.7.0.3"/>
+        <s v="7.7.0.1"/>
+        <s v="7.6.0.6"/>
+        <s v="7.5.0.10"/>
+        <s v="7.6.0.10"/>
+        <s v="7.0.1.6"/>
+        <s v="7.2.0.14"/>
+        <s v="7.2.0.14 "/>
+        <n v="7.7"/>
+        <s v="7.5.0.11"/>
+        <s v="7.5.0.9"/>
+        <s v="7.7.0.2"/>
+        <n v="7.1"/>
+        <s v="7.7.0.6"/>
+        <s v="7.6.0.9"/>
+        <s v="7.7.0.4"/>
+        <s v="8.0.0.1"/>
+        <s v="8.0.0.2"/>
+        <s v="8.0.0.0"/>
+        <s v="7.6.0.11"/>
+        <s v="7.6.0.5"/>
+        <s v="7.3.1"/>
+        <s v="7.7.0.7"/>
+        <s v="8.0.1.3"/>
+        <s v="8.0.1.5"/>
+        <s v="7.6.0.13"/>
+        <s v="7.7.0.10"/>
+        <s v="7.5.0.12 "/>
+        <s v="7.5.0.5"/>
+        <s v="6.1.2.125"/>
+        <s v="7.2.1"/>
+        <s v="7.1.1.6"/>
+        <s v="6.7.2.15"/>
+        <s v="7.4.9"/>
+        <s v="7.5.0.4"/>
+        <s v="7.5.0.7"/>
+        <s v="6.6.2.14"/>
+        <s v="7.4.0.15"/>
+        <s v="6.7.2"/>
+        <s v="6.7.2.14"/>
+        <s v="6.7.0.14"/>
+        <s v="7.2.1.21"/>
+        <n v="7.2"/>
+        <s v="7.6.0.3"/>
+        <s v="7.1.1.8"/>
+        <s v="7.2."/>
+        <s v="7.6.0.0"/>
+        <s v="7.1.1.11"/>
+        <s v="6.7.2.18"/>
+        <n v="7.3"/>
+        <s v="7.1.0.6"/>
+        <s v="7.1.2.53"/>
+        <s v="6.1.2.92"/>
+        <s v="6.6.2.15"/>
+        <s v="7.0.1.5"/>
+        <s v="7.5.0.11 "/>
+        <s v="6.5.2.19"/>
+        <s v="7.7.0.8"/>
+        <s v="7.7.0.2 "/>
+        <s v="8.0.1.4"/>
+        <s v="7.2.1.47"/>
+        <s v="8.0.1.2"/>
+        <s v="7.4.0.0"/>
+        <s v="6.1.2.96"/>
+        <s v="7.0.1.1"/>
+        <s v="7.5.0.12"/>
+        <s v="6.7.2.17"/>
+        <s v="8.0.1"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Created" numFmtId="22">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-12-21T06:16:00" maxDate="2020-01-20T14:09:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-12-21T06:16:00" maxDate="2020-01-20T14:09:00" count="314">
+        <d v="2019-05-01T12:42:00"/>
+        <d v="2019-11-29T11:50:00"/>
+        <d v="2018-01-19T16:37:00"/>
+        <d v="2018-01-31T14:13:00"/>
+        <d v="2018-02-20T16:53:00"/>
+        <d v="2018-03-08T14:41:00"/>
+        <d v="2018-04-17T15:12:00"/>
+        <d v="2018-04-30T20:18:00"/>
+        <d v="2018-05-02T10:28:00"/>
+        <d v="2018-05-02T19:07:00"/>
+        <d v="2018-06-11T20:11:00"/>
+        <d v="2018-06-28T17:48:00"/>
+        <d v="2018-07-12T06:14:00"/>
+        <d v="2018-07-23T04:11:00"/>
+        <d v="2018-08-02T12:45:00"/>
+        <d v="2018-08-09T12:15:00"/>
+        <d v="2018-08-09T18:20:00"/>
+        <d v="2018-08-09T18:21:00"/>
+        <d v="2018-08-31T19:01:00"/>
+        <d v="2018-09-02T20:21:00"/>
+        <d v="2018-09-13T03:24:00"/>
+        <d v="2018-09-20T14:41:00"/>
+        <d v="2018-09-20T16:28:00"/>
+        <d v="2018-10-10T12:06:00"/>
+        <d v="2018-11-08T17:21:00"/>
+        <d v="2018-11-19T09:12:00"/>
+        <d v="2018-11-20T10:36:00"/>
+        <d v="2018-11-22T13:29:00"/>
+        <d v="2018-11-28T16:32:00"/>
+        <d v="2018-12-05T09:09:00"/>
+        <d v="2018-12-12T15:26:00"/>
+        <d v="2019-01-18T14:11:00"/>
+        <d v="2019-01-24T07:29:00"/>
+        <d v="2019-02-04T15:30:00"/>
+        <d v="2019-02-06T15:19:00"/>
+        <d v="2019-02-14T14:20:00"/>
+        <d v="2019-02-20T09:16:00"/>
+        <d v="2019-02-27T09:51:00"/>
+        <d v="2019-03-06T05:29:00"/>
+        <d v="2019-03-14T03:52:00"/>
+        <d v="2019-03-18T09:26:00"/>
+        <d v="2019-03-20T17:44:00"/>
+        <d v="2019-03-20T22:34:00"/>
+        <d v="2019-03-22T05:44:00"/>
+        <d v="2019-03-28T03:25:00"/>
+        <d v="2019-04-04T10:53:00"/>
+        <d v="2019-04-04T15:57:00"/>
+        <d v="2019-04-09T12:09:00"/>
+        <d v="2019-04-10T10:19:00"/>
+        <d v="2019-04-15T11:15:00"/>
+        <d v="2019-04-15T11:33:00"/>
+        <d v="2019-04-15T11:56:00"/>
+        <d v="2019-05-06T05:13:00"/>
+        <d v="2019-05-14T15:34:00"/>
+        <d v="2019-05-15T11:04:00"/>
+        <d v="2019-05-20T17:40:00"/>
+        <d v="2019-05-21T07:12:00"/>
+        <d v="2019-05-21T12:23:00"/>
+        <d v="2019-05-22T21:01:00"/>
+        <d v="2019-05-31T14:14:00"/>
+        <d v="2019-06-10T16:54:00"/>
+        <d v="2019-06-12T16:53:00"/>
+        <d v="2019-06-25T11:31:00"/>
+        <d v="2019-07-03T14:38:00"/>
+        <d v="2019-07-09T12:25:00"/>
+        <d v="2019-07-11T04:43:00"/>
+        <d v="2019-07-16T18:16:00"/>
+        <d v="2019-07-26T12:21:00"/>
+        <d v="2019-07-29T06:56:00"/>
+        <d v="2019-08-01T03:05:00"/>
+        <d v="2019-08-05T19:18:00"/>
+        <d v="2019-08-06T05:58:00"/>
+        <d v="2019-08-14T08:51:00"/>
+        <d v="2019-08-19T21:14:00"/>
+        <d v="2019-09-02T13:40:00"/>
+        <d v="2019-09-11T13:59:00"/>
+        <d v="2019-09-17T09:52:00"/>
+        <d v="2019-09-18T12:21:00"/>
+        <d v="2019-09-19T15:24:00"/>
+        <d v="2019-09-23T08:22:00"/>
+        <d v="2019-10-03T08:22:00"/>
+        <d v="2019-10-09T15:20:00"/>
+        <d v="2019-10-18T12:54:00"/>
+        <d v="2019-11-01T09:08:00"/>
+        <d v="2019-11-07T10:04:00"/>
+        <d v="2019-11-13T12:21:00"/>
+        <d v="2019-12-12T02:28:00"/>
+        <d v="2019-12-13T08:22:00"/>
+        <d v="2019-12-19T23:11:00"/>
+        <d v="2019-12-19T23:41:00"/>
+        <d v="2020-01-06T09:39:00"/>
+        <d v="2020-01-08T11:27:00"/>
+        <d v="2020-01-10T09:56:00"/>
+        <d v="2020-01-10T12:19:00"/>
+        <d v="2020-01-14T10:10:00"/>
+        <d v="2020-01-17T08:27:00"/>
+        <d v="2020-01-20T14:09:00"/>
+        <d v="2017-12-21T06:16:00"/>
+        <d v="2018-01-05T15:59:00"/>
+        <d v="2018-01-11T14:32:00"/>
+        <d v="2018-01-12T20:20:00"/>
+        <d v="2018-02-01T15:51:00"/>
+        <d v="2018-02-09T10:14:00"/>
+        <d v="2018-02-18T22:44:00"/>
+        <d v="2018-02-20T09:27:00"/>
+        <d v="2018-03-05T13:43:00"/>
+        <d v="2018-03-06T06:47:00"/>
+        <d v="2018-03-08T14:01:00"/>
+        <d v="2018-03-08T19:15:00"/>
+        <d v="2018-03-09T23:31:00"/>
+        <d v="2018-03-14T08:46:00"/>
+        <d v="2018-03-16T08:26:00"/>
+        <d v="2018-04-10T10:56:00"/>
+        <d v="2018-04-20T09:54:00"/>
+        <d v="2018-04-22T19:36:00"/>
+        <d v="2018-04-22T19:46:00"/>
+        <d v="2018-04-24T15:05:00"/>
+        <d v="2018-05-14T13:41:00"/>
+        <d v="2018-05-15T17:13:00"/>
+        <d v="2018-05-22T04:15:00"/>
+        <d v="2018-05-31T10:24:00"/>
+        <d v="2018-06-05T04:14:00"/>
+        <d v="2018-06-12T10:25:00"/>
+        <d v="2018-06-15T17:13:00"/>
+        <d v="2018-07-06T05:11:00"/>
+        <d v="2018-07-11T08:47:00"/>
+        <d v="2018-07-16T16:54:00"/>
+        <d v="2018-07-24T09:51:00"/>
+        <d v="2018-08-13T06:47:00"/>
+        <d v="2018-08-21T05:47:00"/>
+        <d v="2018-08-21T09:19:00"/>
+        <d v="2018-08-27T08:53:00"/>
+        <d v="2018-08-29T14:40:00"/>
+        <d v="2018-08-29T16:24:00"/>
+        <d v="2018-08-29T16:38:00"/>
+        <d v="2018-08-29T16:42:00"/>
+        <d v="2018-08-29T17:24:00"/>
+        <d v="2018-08-30T08:42:00"/>
+        <d v="2018-08-30T09:08:00"/>
+        <d v="2018-08-31T07:44:00"/>
+        <d v="2018-08-31T09:07:00"/>
+        <d v="2018-09-04T11:56:00"/>
+        <d v="2018-09-14T01:43:00"/>
+        <d v="2018-09-17T17:04:00"/>
+        <d v="2018-10-11T00:40:00"/>
+        <d v="2018-10-11T05:19:00"/>
+        <d v="2018-10-15T06:24:00"/>
+        <d v="2018-10-16T15:28:00"/>
+        <d v="2018-10-30T03:25:00"/>
+        <d v="2018-11-05T12:53:00"/>
+        <d v="2018-11-05T13:25:00"/>
+        <d v="2018-11-20T16:42:00"/>
+        <d v="2018-11-20T17:28:00"/>
+        <d v="2018-11-21T00:44:00"/>
+        <d v="2018-11-30T11:01:00"/>
+        <d v="2018-12-03T15:47:00"/>
+        <d v="2018-12-04T12:01:00"/>
+        <d v="2018-12-13T03:31:00"/>
+        <d v="2018-12-18T23:57:00"/>
+        <d v="2019-01-01T23:00:00"/>
+        <d v="2019-01-07T11:26:00"/>
+        <d v="2019-01-07T14:41:00"/>
+        <d v="2019-01-10T17:44:00"/>
+        <d v="2019-01-16T11:52:00"/>
+        <d v="2019-01-23T13:37:00"/>
+        <d v="2019-01-25T12:14:00"/>
+        <d v="2019-01-28T16:03:00"/>
+        <d v="2019-02-01T04:17:00"/>
+        <d v="2019-02-01T09:15:00"/>
+        <d v="2019-02-11T06:55:00"/>
+        <d v="2019-02-11T11:17:00"/>
+        <d v="2019-02-13T06:43:00"/>
+        <d v="2019-02-14T00:35:00"/>
+        <d v="2019-02-14T05:16:00"/>
+        <d v="2019-02-14T13:39:00"/>
+        <d v="2019-02-15T12:47:00"/>
+        <d v="2019-02-18T11:44:00"/>
+        <d v="2019-02-20T07:41:00"/>
+        <d v="2019-02-21T04:15:00"/>
+        <d v="2019-02-21T16:20:00"/>
+        <d v="2019-02-22T14:37:00"/>
+        <d v="2019-02-25T13:26:00"/>
+        <d v="2019-02-25T17:42:00"/>
+        <d v="2019-02-26T14:40:00"/>
+        <d v="2019-02-28T14:51:00"/>
+        <d v="2019-02-28T17:24:00"/>
+        <d v="2019-03-04T08:30:00"/>
+        <d v="2019-03-06T05:40:00"/>
+        <d v="2019-03-06T13:23:00"/>
+        <d v="2019-03-07T01:20:00"/>
+        <d v="2019-03-07T11:43:00"/>
+        <d v="2019-03-07T15:29:00"/>
+        <d v="2019-03-07T15:42:00"/>
+        <d v="2019-03-08T02:54:00"/>
+        <d v="2019-03-11T13:12:00"/>
+        <d v="2019-03-13T03:22:00"/>
+        <d v="2019-03-13T04:15:00"/>
+        <d v="2019-03-14T15:38:00"/>
+        <d v="2019-03-21T05:57:00"/>
+        <d v="2019-03-22T00:15:00"/>
+        <d v="2019-03-27T07:19:00"/>
+        <d v="2019-04-01T14:52:00"/>
+        <d v="2019-04-04T14:18:00"/>
+        <d v="2019-04-10T08:09:00"/>
+        <d v="2019-04-19T15:16:00"/>
+        <d v="2019-04-22T09:42:00"/>
+        <d v="2019-04-23T09:58:00"/>
+        <d v="2019-04-24T09:16:00"/>
+        <d v="2019-05-06T10:53:00"/>
+        <d v="2019-05-09T00:57:00"/>
+        <d v="2019-05-09T01:00:00"/>
+        <d v="2019-05-10T09:55:00"/>
+        <d v="2019-05-10T11:38:00"/>
+        <d v="2019-05-15T00:38:00"/>
+        <d v="2019-05-15T14:43:00"/>
+        <d v="2019-05-17T16:07:00"/>
+        <d v="2019-05-20T15:36:00"/>
+        <d v="2019-05-22T07:31:00"/>
+        <d v="2019-05-25T04:15:00"/>
+        <d v="2019-05-29T11:29:00"/>
+        <d v="2019-05-31T01:55:00"/>
+        <d v="2019-06-12T07:29:00"/>
+        <d v="2019-06-12T15:53:00"/>
+        <d v="2019-06-24T10:16:00"/>
+        <d v="2019-06-25T08:21:00"/>
+        <d v="2019-06-26T09:49:00"/>
+        <d v="2019-07-04T09:17:00"/>
+        <d v="2019-07-08T05:33:00"/>
+        <d v="2019-07-11T08:24:00"/>
+        <d v="2019-07-11T08:30:00"/>
+        <d v="2019-07-12T08:54:00"/>
+        <d v="2019-07-17T03:58:00"/>
+        <d v="2019-07-19T16:25:00"/>
+        <d v="2019-07-26T09:27:00"/>
+        <d v="2019-07-29T07:53:00"/>
+        <d v="2019-07-29T13:04:00"/>
+        <d v="2019-07-29T13:32:00"/>
+        <d v="2019-07-30T12:17:00"/>
+        <d v="2019-07-31T08:42:00"/>
+        <d v="2019-08-02T16:18:00"/>
+        <d v="2019-08-05T07:51:00"/>
+        <d v="2019-08-06T06:21:00"/>
+        <d v="2019-08-07T14:33:00"/>
+        <d v="2019-08-19T12:40:00"/>
+        <d v="2019-08-19T14:42:00"/>
+        <d v="2019-08-19T16:36:00"/>
+        <d v="2019-08-23T11:13:00"/>
+        <d v="2019-08-29T14:54:00"/>
+        <d v="2019-09-04T04:48:00"/>
+        <d v="2019-09-05T08:49:00"/>
+        <d v="2019-09-09T00:30:00"/>
+        <d v="2019-09-10T09:29:00"/>
+        <d v="2019-09-11T08:32:00"/>
+        <d v="2019-09-13T07:00:00"/>
+        <d v="2019-09-16T03:05:00"/>
+        <d v="2019-09-16T13:38:00"/>
+        <d v="2019-09-18T07:27:00"/>
+        <d v="2019-09-18T14:18:00"/>
+        <d v="2019-09-20T07:50:00"/>
+        <d v="2019-09-20T09:03:00"/>
+        <d v="2019-09-23T07:00:00"/>
+        <d v="2019-09-25T12:06:00"/>
+        <d v="2019-09-26T02:44:00"/>
+        <d v="2019-10-07T10:40:00"/>
+        <d v="2019-10-09T04:20:00"/>
+        <d v="2019-10-11T13:39:00"/>
+        <d v="2019-10-15T17:52:00"/>
+        <d v="2019-10-16T10:41:00"/>
+        <d v="2019-10-17T13:04:00"/>
+        <d v="2019-10-18T19:57:00"/>
+        <d v="2019-10-22T17:12:00"/>
+        <d v="2019-10-25T10:22:00"/>
+        <d v="2019-10-25T10:25:00"/>
+        <d v="2019-10-25T14:58:00"/>
+        <d v="2019-10-29T10:19:00"/>
+        <d v="2019-10-30T14:53:00"/>
+        <d v="2019-11-04T11:22:00"/>
+        <d v="2019-11-06T15:27:00"/>
+        <d v="2019-11-06T18:48:00"/>
+        <d v="2019-11-07T08:56:00"/>
+        <d v="2019-11-07T10:40:00"/>
+        <d v="2019-11-11T22:16:00"/>
+        <d v="2019-11-13T17:11:00"/>
+        <d v="2019-11-15T15:55:00"/>
+        <d v="2019-11-20T09:37:00"/>
+        <d v="2019-11-22T07:44:00"/>
+        <d v="2019-11-22T10:29:00"/>
+        <d v="2019-11-22T11:02:00"/>
+        <d v="2019-11-26T13:44:00"/>
+        <d v="2019-11-27T08:54:00"/>
+        <d v="2019-11-28T04:47:00"/>
+        <d v="2019-12-06T05:17:00"/>
+        <d v="2019-12-10T05:51:00"/>
+        <d v="2019-12-12T04:50:00"/>
+        <d v="2019-12-12T14:32:00"/>
+        <d v="2019-12-12T16:30:00"/>
+        <d v="2019-12-19T14:25:00"/>
+        <d v="2020-01-07T05:24:00"/>
+        <d v="2020-01-08T16:18:00"/>
+        <d v="2020-01-13T17:01:00"/>
+        <d v="2020-01-17T09:40:00"/>
+        <d v="2018-05-21T19:57:00"/>
+        <d v="2018-09-10T08:52:00"/>
+        <d v="2019-02-26T11:04:00"/>
+        <d v="2019-03-20T09:26:00"/>
+        <d v="2019-04-03T21:14:00"/>
+        <d v="2019-05-21T11:42:00"/>
+        <d v="2019-05-29T13:22:00"/>
+        <d v="2019-06-05T08:25:00"/>
+        <d v="2019-07-19T10:58:00"/>
+        <d v="2019-07-23T18:45:00"/>
+        <d v="2019-10-03T10:18:00"/>
+        <d v="2019-11-01T02:49:00"/>
+        <d v="2019-03-05T08:13:00"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Resolution" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -14634,8 +15044,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2019-05-01T12:42:00"/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <x v="0"/>
   </r>
@@ -14662,8 +15072,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.4.0.12"/>
-    <d v="2019-11-29T11:50:00"/>
+    <x v="1"/>
+    <x v="1"/>
     <m/>
     <x v="1"/>
   </r>
@@ -14690,8 +15100,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.1.1.10"/>
-    <d v="2018-01-19T16:37:00"/>
+    <x v="2"/>
+    <x v="2"/>
     <m/>
     <x v="2"/>
   </r>
@@ -14718,8 +15128,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.2.0.15"/>
-    <d v="2018-01-31T14:13:00"/>
+    <x v="3"/>
+    <x v="3"/>
     <m/>
     <x v="3"/>
   </r>
@@ -14746,8 +15156,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.2.1.50"/>
-    <d v="2018-02-20T16:53:00"/>
+    <x v="4"/>
+    <x v="4"/>
     <m/>
     <x v="3"/>
   </r>
@@ -14774,8 +15184,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.2.1.53"/>
-    <d v="2018-03-08T14:41:00"/>
+    <x v="5"/>
+    <x v="5"/>
     <m/>
     <x v="3"/>
   </r>
@@ -14802,8 +15212,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.4.0.11"/>
-    <d v="2018-04-17T15:12:00"/>
+    <x v="6"/>
+    <x v="6"/>
     <m/>
     <x v="1"/>
   </r>
@@ -14830,8 +15240,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.4.0.14"/>
-    <d v="2018-04-30T20:18:00"/>
+    <x v="7"/>
+    <x v="7"/>
     <m/>
     <x v="1"/>
   </r>
@@ -14858,8 +15268,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.2.1.53"/>
-    <d v="2018-05-02T10:28:00"/>
+    <x v="5"/>
+    <x v="8"/>
     <m/>
     <x v="3"/>
   </r>
@@ -14886,8 +15296,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <s v="7.4.0.11"/>
-    <d v="2018-05-02T19:07:00"/>
+    <x v="6"/>
+    <x v="9"/>
     <m/>
     <x v="1"/>
   </r>
@@ -14914,8 +15324,8 @@
     <x v="4"/>
     <m/>
     <m/>
-    <s v="7.2.1.26"/>
-    <d v="2018-06-11T20:11:00"/>
+    <x v="8"/>
+    <x v="10"/>
     <m/>
     <x v="3"/>
   </r>
@@ -14942,8 +15352,8 @@
     <x v="4"/>
     <m/>
     <m/>
-    <s v="7.2.1.26"/>
-    <d v="2018-06-28T17:48:00"/>
+    <x v="8"/>
+    <x v="11"/>
     <m/>
     <x v="3"/>
   </r>
@@ -14970,8 +15380,8 @@
     <x v="3"/>
     <s v="Other"/>
     <m/>
-    <s v="7.4.0.14"/>
-    <d v="2018-07-12T06:14:00"/>
+    <x v="7"/>
+    <x v="12"/>
     <m/>
     <x v="1"/>
   </r>
@@ -14998,8 +15408,8 @@
     <x v="3"/>
     <s v="Other"/>
     <m/>
-    <s v="7.4.0.14"/>
-    <d v="2018-07-23T04:11:00"/>
+    <x v="7"/>
+    <x v="13"/>
     <m/>
     <x v="1"/>
   </r>
@@ -15026,8 +15436,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.4.0.11"/>
-    <d v="2018-08-02T12:45:00"/>
+    <x v="6"/>
+    <x v="14"/>
     <m/>
     <x v="1"/>
   </r>
@@ -15054,8 +15464,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="6.1.2.122"/>
-    <d v="2018-08-09T12:15:00"/>
+    <x v="9"/>
+    <x v="15"/>
     <m/>
     <x v="4"/>
   </r>
@@ -15082,8 +15492,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.5.0.6"/>
-    <d v="2018-08-09T18:20:00"/>
+    <x v="10"/>
+    <x v="16"/>
     <m/>
     <x v="5"/>
   </r>
@@ -15110,8 +15520,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.5.0.6"/>
-    <d v="2018-08-09T18:21:00"/>
+    <x v="10"/>
+    <x v="17"/>
     <m/>
     <x v="5"/>
   </r>
@@ -15138,8 +15548,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <s v="7.5.0.3"/>
-    <d v="2018-08-31T19:01:00"/>
+    <x v="11"/>
+    <x v="18"/>
     <m/>
     <x v="5"/>
   </r>
@@ -15166,8 +15576,8 @@
     <x v="3"/>
     <s v="Application Builder"/>
     <m/>
-    <n v="7.4"/>
-    <d v="2018-09-02T20:21:00"/>
+    <x v="12"/>
+    <x v="19"/>
     <m/>
     <x v="1"/>
   </r>
@@ -15194,8 +15604,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <n v="7.4"/>
-    <d v="2018-09-13T03:24:00"/>
+    <x v="12"/>
+    <x v="20"/>
     <m/>
     <x v="1"/>
   </r>
@@ -15222,8 +15632,8 @@
     <x v="7"/>
     <m/>
     <m/>
-    <n v="7.5"/>
-    <d v="2018-09-20T14:41:00"/>
+    <x v="13"/>
+    <x v="21"/>
     <m/>
     <x v="5"/>
   </r>
@@ -15250,8 +15660,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.6.0.4"/>
-    <d v="2018-09-20T16:28:00"/>
+    <x v="14"/>
+    <x v="22"/>
     <m/>
     <x v="0"/>
   </r>
@@ -15278,8 +15688,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <s v="7.6.0.4"/>
-    <d v="2018-10-10T12:06:00"/>
+    <x v="14"/>
+    <x v="23"/>
     <m/>
     <x v="0"/>
   </r>
@@ -15306,8 +15716,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.5.0.3"/>
-    <d v="2018-11-08T17:21:00"/>
+    <x v="11"/>
+    <x v="24"/>
     <m/>
     <x v="5"/>
   </r>
@@ -15334,8 +15744,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.4.0.14"/>
-    <d v="2018-11-19T09:12:00"/>
+    <x v="7"/>
+    <x v="25"/>
     <m/>
     <x v="1"/>
   </r>
@@ -15362,8 +15772,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.2.1.53"/>
-    <d v="2018-11-20T10:36:00"/>
+    <x v="5"/>
+    <x v="26"/>
     <m/>
     <x v="3"/>
   </r>
@@ -15390,8 +15800,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.4"/>
-    <d v="2018-11-22T13:29:00"/>
+    <x v="14"/>
+    <x v="27"/>
     <m/>
     <x v="0"/>
   </r>
@@ -15418,8 +15828,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.2.1.49"/>
-    <d v="2018-11-28T16:32:00"/>
+    <x v="15"/>
+    <x v="28"/>
     <m/>
     <x v="3"/>
   </r>
@@ -15446,8 +15856,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.7"/>
-    <d v="2018-12-05T09:09:00"/>
+    <x v="16"/>
+    <x v="29"/>
     <m/>
     <x v="0"/>
   </r>
@@ -15474,8 +15884,8 @@
     <x v="0"/>
     <s v="Services Manager"/>
     <m/>
-    <s v="7.3.1.5"/>
-    <d v="2018-12-12T15:26:00"/>
+    <x v="17"/>
+    <x v="30"/>
     <m/>
     <x v="6"/>
   </r>
@@ -15502,8 +15912,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.1.1.7"/>
-    <d v="2019-01-18T14:11:00"/>
+    <x v="18"/>
+    <x v="31"/>
     <m/>
     <x v="2"/>
   </r>
@@ -15530,8 +15940,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <s v="7.3.1.6"/>
-    <d v="2019-01-24T07:29:00"/>
+    <x v="19"/>
+    <x v="32"/>
     <m/>
     <x v="6"/>
   </r>
@@ -15558,8 +15968,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.7"/>
-    <d v="2019-02-04T15:30:00"/>
+    <x v="16"/>
+    <x v="33"/>
     <m/>
     <x v="0"/>
   </r>
@@ -15586,8 +15996,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.7.0.3"/>
-    <d v="2019-02-06T15:19:00"/>
+    <x v="20"/>
+    <x v="34"/>
     <s v="Fixed"/>
     <x v="7"/>
   </r>
@@ -15614,8 +16024,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.7.0.1"/>
-    <d v="2019-02-14T14:20:00"/>
+    <x v="21"/>
+    <x v="35"/>
     <m/>
     <x v="7"/>
   </r>
@@ -15642,8 +16052,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.6"/>
-    <d v="2019-02-20T09:16:00"/>
+    <x v="22"/>
+    <x v="36"/>
     <s v="Fixed"/>
     <x v="0"/>
   </r>
@@ -15670,8 +16080,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.5.0.10"/>
-    <d v="2019-02-27T09:51:00"/>
+    <x v="23"/>
+    <x v="37"/>
     <m/>
     <x v="5"/>
   </r>
@@ -15698,8 +16108,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2019-03-06T05:29:00"/>
+    <x v="0"/>
+    <x v="38"/>
     <m/>
     <x v="0"/>
   </r>
@@ -15726,8 +16136,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2019-03-14T03:52:00"/>
+    <x v="0"/>
+    <x v="39"/>
     <m/>
     <x v="0"/>
   </r>
@@ -15754,8 +16164,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.6.0.10"/>
-    <d v="2019-03-18T09:26:00"/>
+    <x v="24"/>
+    <x v="40"/>
     <m/>
     <x v="0"/>
   </r>
@@ -15782,8 +16192,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.0.1.6"/>
-    <d v="2019-03-20T17:44:00"/>
+    <x v="25"/>
+    <x v="41"/>
     <m/>
     <x v="8"/>
   </r>
@@ -15810,8 +16220,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.2.0.14"/>
-    <d v="2019-03-20T22:34:00"/>
+    <x v="26"/>
+    <x v="42"/>
     <m/>
     <x v="3"/>
   </r>
@@ -15838,8 +16248,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.2.0.14 "/>
-    <d v="2019-03-22T05:44:00"/>
+    <x v="27"/>
+    <x v="43"/>
     <m/>
     <x v="3"/>
   </r>
@@ -15866,8 +16276,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <n v="7.7"/>
-    <d v="2019-03-28T03:25:00"/>
+    <x v="28"/>
+    <x v="44"/>
     <m/>
     <x v="7"/>
   </r>
@@ -15894,8 +16304,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <s v="7.3.1.5"/>
-    <d v="2019-04-04T10:53:00"/>
+    <x v="17"/>
+    <x v="45"/>
     <m/>
     <x v="6"/>
   </r>
@@ -15922,8 +16332,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.5.0.11"/>
-    <d v="2019-04-04T15:57:00"/>
+    <x v="29"/>
+    <x v="46"/>
     <m/>
     <x v="5"/>
   </r>
@@ -15950,8 +16360,8 @@
     <x v="8"/>
     <m/>
     <m/>
-    <s v="7.5.0.9"/>
-    <d v="2019-04-09T12:09:00"/>
+    <x v="30"/>
+    <x v="47"/>
     <m/>
     <x v="5"/>
   </r>
@@ -15978,8 +16388,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2019-04-10T10:19:00"/>
+    <x v="0"/>
+    <x v="48"/>
     <m/>
     <x v="0"/>
   </r>
@@ -16006,8 +16416,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.7.0.2"/>
-    <d v="2019-04-15T11:15:00"/>
+    <x v="31"/>
+    <x v="49"/>
     <s v="Fixed"/>
     <x v="7"/>
   </r>
@@ -16034,8 +16444,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.7.0.2"/>
-    <d v="2019-04-15T11:33:00"/>
+    <x v="31"/>
+    <x v="50"/>
     <m/>
     <x v="7"/>
   </r>
@@ -16062,8 +16472,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.7.0.2"/>
-    <d v="2019-04-15T11:56:00"/>
+    <x v="31"/>
+    <x v="51"/>
     <m/>
     <x v="7"/>
   </r>
@@ -16090,8 +16500,8 @@
     <x v="9"/>
     <m/>
     <m/>
-    <n v="7.1"/>
-    <d v="2019-05-06T05:13:00"/>
+    <x v="32"/>
+    <x v="52"/>
     <m/>
     <x v="2"/>
   </r>
@@ -16118,8 +16528,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <n v="7.7"/>
-    <d v="2019-05-14T15:34:00"/>
+    <x v="28"/>
+    <x v="53"/>
     <m/>
     <x v="7"/>
   </r>
@@ -16146,8 +16556,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.3.1.6"/>
-    <d v="2019-05-15T11:04:00"/>
+    <x v="19"/>
+    <x v="54"/>
     <s v="Fixed"/>
     <x v="6"/>
   </r>
@@ -16174,8 +16584,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.7.0.6"/>
-    <d v="2019-05-20T17:40:00"/>
+    <x v="33"/>
+    <x v="55"/>
     <m/>
     <x v="7"/>
   </r>
@@ -16202,8 +16612,8 @@
     <x v="4"/>
     <s v="Watchlist Manager"/>
     <m/>
-    <s v="7.6.0.9"/>
-    <d v="2019-05-21T07:12:00"/>
+    <x v="34"/>
+    <x v="56"/>
     <s v="Fixed"/>
     <x v="0"/>
   </r>
@@ -16230,8 +16640,8 @@
     <x v="4"/>
     <s v="Watchlist Manager"/>
     <m/>
-    <s v="7.6.0.9"/>
-    <d v="2019-05-21T12:23:00"/>
+    <x v="34"/>
+    <x v="57"/>
     <s v="Fixed"/>
     <x v="0"/>
   </r>
@@ -16258,8 +16668,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.7.0.4"/>
-    <d v="2019-05-22T21:01:00"/>
+    <x v="35"/>
+    <x v="58"/>
     <m/>
     <x v="7"/>
   </r>
@@ -16286,8 +16696,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <n v="7.7"/>
-    <d v="2019-05-31T14:14:00"/>
+    <x v="28"/>
+    <x v="59"/>
     <m/>
     <x v="7"/>
   </r>
@@ -16314,8 +16724,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <n v="7.7"/>
-    <d v="2019-06-10T16:54:00"/>
+    <x v="28"/>
+    <x v="60"/>
     <m/>
     <x v="7"/>
   </r>
@@ -16342,8 +16752,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <n v="7.5"/>
-    <d v="2019-06-12T16:53:00"/>
+    <x v="13"/>
+    <x v="61"/>
     <m/>
     <x v="5"/>
   </r>
@@ -16370,8 +16780,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="8.0.0.1"/>
-    <d v="2019-06-25T11:31:00"/>
+    <x v="36"/>
+    <x v="62"/>
     <m/>
     <x v="9"/>
   </r>
@@ -16398,8 +16808,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <n v="7.7"/>
-    <d v="2019-07-03T14:38:00"/>
+    <x v="28"/>
+    <x v="63"/>
     <m/>
     <x v="7"/>
   </r>
@@ -16426,8 +16836,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="8.0.0.2"/>
-    <d v="2019-07-09T12:25:00"/>
+    <x v="37"/>
+    <x v="64"/>
     <s v="Fixed"/>
     <x v="9"/>
   </r>
@@ -16454,8 +16864,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.7.0.2"/>
-    <d v="2019-07-11T04:43:00"/>
+    <x v="31"/>
+    <x v="65"/>
     <m/>
     <x v="7"/>
   </r>
@@ -16482,8 +16892,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="8.0.0.0"/>
-    <d v="2019-07-16T18:16:00"/>
+    <x v="38"/>
+    <x v="66"/>
     <m/>
     <x v="9"/>
   </r>
@@ -16510,8 +16920,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <s v="8.0.0.0"/>
-    <d v="2019-07-26T12:21:00"/>
+    <x v="38"/>
+    <x v="67"/>
     <m/>
     <x v="9"/>
   </r>
@@ -16538,8 +16948,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2019-07-29T06:56:00"/>
+    <x v="0"/>
+    <x v="68"/>
     <m/>
     <x v="0"/>
   </r>
@@ -16566,8 +16976,8 @@
     <x v="10"/>
     <m/>
     <m/>
-    <s v="7.6.0.11"/>
-    <d v="2019-08-01T03:05:00"/>
+    <x v="39"/>
+    <x v="69"/>
     <m/>
     <x v="0"/>
   </r>
@@ -16594,8 +17004,8 @@
     <x v="10"/>
     <m/>
     <m/>
-    <s v="8.0.0.0"/>
-    <d v="2019-08-05T19:18:00"/>
+    <x v="38"/>
+    <x v="70"/>
     <m/>
     <x v="9"/>
   </r>
@@ -16622,8 +17032,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.10"/>
-    <d v="2019-08-06T05:58:00"/>
+    <x v="24"/>
+    <x v="71"/>
     <m/>
     <x v="0"/>
   </r>
@@ -16650,8 +17060,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.5"/>
-    <d v="2019-08-14T08:51:00"/>
+    <x v="40"/>
+    <x v="72"/>
     <m/>
     <x v="0"/>
   </r>
@@ -16678,8 +17088,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.3.1"/>
-    <d v="2019-08-19T21:14:00"/>
+    <x v="41"/>
+    <x v="73"/>
     <m/>
     <x v="6"/>
   </r>
@@ -16706,8 +17116,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <s v="8.0.0.0"/>
-    <d v="2019-09-02T13:40:00"/>
+    <x v="38"/>
+    <x v="74"/>
     <m/>
     <x v="9"/>
   </r>
@@ -16734,8 +17144,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.7.0.7"/>
-    <d v="2019-09-11T13:59:00"/>
+    <x v="42"/>
+    <x v="75"/>
     <m/>
     <x v="7"/>
   </r>
@@ -16762,8 +17172,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.5.0.10"/>
-    <d v="2019-09-17T09:52:00"/>
+    <x v="23"/>
+    <x v="76"/>
     <m/>
     <x v="5"/>
   </r>
@@ -16790,8 +17200,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.7.0.7"/>
-    <d v="2019-09-18T12:21:00"/>
+    <x v="42"/>
+    <x v="77"/>
     <m/>
     <x v="7"/>
   </r>
@@ -16818,8 +17228,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="8.0.1.3"/>
-    <d v="2019-09-19T15:24:00"/>
+    <x v="43"/>
+    <x v="78"/>
     <m/>
     <x v="9"/>
   </r>
@@ -16846,8 +17256,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.7.0.2"/>
-    <d v="2019-09-23T08:22:00"/>
+    <x v="31"/>
+    <x v="79"/>
     <m/>
     <x v="7"/>
   </r>
@@ -16874,8 +17284,8 @@
     <x v="10"/>
     <m/>
     <m/>
-    <s v="7.6.0.10"/>
-    <d v="2019-10-03T08:22:00"/>
+    <x v="24"/>
+    <x v="80"/>
     <m/>
     <x v="0"/>
   </r>
@@ -16902,8 +17312,8 @@
     <x v="11"/>
     <m/>
     <m/>
-    <s v="7.7.0.7"/>
-    <d v="2019-10-09T15:20:00"/>
+    <x v="42"/>
+    <x v="81"/>
     <m/>
     <x v="7"/>
   </r>
@@ -16930,8 +17340,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="8.0.0.0"/>
-    <d v="2019-10-18T12:54:00"/>
+    <x v="38"/>
+    <x v="82"/>
     <m/>
     <x v="9"/>
   </r>
@@ -16958,8 +17368,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.5"/>
-    <d v="2019-11-01T09:08:00"/>
+    <x v="40"/>
+    <x v="83"/>
     <s v="Fixed"/>
     <x v="0"/>
   </r>
@@ -16986,8 +17396,8 @@
     <x v="10"/>
     <m/>
     <m/>
-    <s v="7.6.0.10"/>
-    <d v="2019-11-07T10:04:00"/>
+    <x v="24"/>
+    <x v="84"/>
     <m/>
     <x v="0"/>
   </r>
@@ -17014,8 +17424,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.11"/>
-    <d v="2019-11-13T12:21:00"/>
+    <x v="39"/>
+    <x v="85"/>
     <m/>
     <x v="0"/>
   </r>
@@ -17042,8 +17452,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="8.0.1.5"/>
-    <d v="2019-12-12T02:28:00"/>
+    <x v="44"/>
+    <x v="86"/>
     <m/>
     <x v="9"/>
   </r>
@@ -17070,8 +17480,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.7.0.2"/>
-    <d v="2019-12-13T08:22:00"/>
+    <x v="31"/>
+    <x v="87"/>
     <m/>
     <x v="7"/>
   </r>
@@ -17098,8 +17508,8 @@
     <x v="11"/>
     <m/>
     <m/>
-    <s v="7.6.0.13"/>
-    <d v="2019-12-19T23:11:00"/>
+    <x v="45"/>
+    <x v="88"/>
     <m/>
     <x v="0"/>
   </r>
@@ -17126,8 +17536,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.13"/>
-    <d v="2019-12-19T23:41:00"/>
+    <x v="45"/>
+    <x v="89"/>
     <m/>
     <x v="0"/>
   </r>
@@ -17154,8 +17564,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.7.0.10"/>
-    <d v="2020-01-06T09:39:00"/>
+    <x v="46"/>
+    <x v="90"/>
     <m/>
     <x v="7"/>
   </r>
@@ -17182,8 +17592,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.7.0.10"/>
-    <d v="2020-01-08T11:27:00"/>
+    <x v="46"/>
+    <x v="91"/>
     <m/>
     <x v="7"/>
   </r>
@@ -17210,8 +17620,8 @@
     <x v="10"/>
     <m/>
     <m/>
-    <n v="7.5"/>
-    <d v="2020-01-10T09:56:00"/>
+    <x v="13"/>
+    <x v="92"/>
     <m/>
     <x v="5"/>
   </r>
@@ -17238,8 +17648,8 @@
     <x v="10"/>
     <m/>
     <m/>
-    <s v="8.0.0.2"/>
-    <d v="2020-01-10T12:19:00"/>
+    <x v="37"/>
+    <x v="93"/>
     <m/>
     <x v="9"/>
   </r>
@@ -17266,8 +17676,8 @@
     <x v="2"/>
     <s v="Base Platform"/>
     <m/>
-    <n v="7.6"/>
-    <d v="2020-01-14T10:10:00"/>
+    <x v="0"/>
+    <x v="94"/>
     <m/>
     <x v="0"/>
   </r>
@@ -17294,8 +17704,8 @@
     <x v="10"/>
     <s v="Batch Bridge"/>
     <m/>
-    <s v="7.5.0.12 "/>
-    <d v="2020-01-17T08:27:00"/>
+    <x v="47"/>
+    <x v="95"/>
     <m/>
     <x v="5"/>
   </r>
@@ -17322,8 +17732,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <s v="7.5.0.5"/>
-    <d v="2020-01-20T14:09:00"/>
+    <x v="48"/>
+    <x v="96"/>
     <m/>
     <x v="5"/>
   </r>
@@ -17350,8 +17760,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="6.1.2.125"/>
-    <d v="2017-12-21T06:16:00"/>
+    <x v="49"/>
+    <x v="97"/>
     <m/>
     <x v="4"/>
   </r>
@@ -17378,8 +17788,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <n v="7.5"/>
-    <d v="2018-01-05T15:59:00"/>
+    <x v="13"/>
+    <x v="98"/>
     <m/>
     <x v="5"/>
   </r>
@@ -17406,8 +17816,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <s v="7.0.1.6"/>
-    <d v="2018-01-11T14:32:00"/>
+    <x v="25"/>
+    <x v="99"/>
     <s v="Fixed"/>
     <x v="8"/>
   </r>
@@ -17434,8 +17844,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.2.1"/>
-    <d v="2018-01-12T20:20:00"/>
+    <x v="50"/>
+    <x v="100"/>
     <m/>
     <x v="3"/>
   </r>
@@ -17462,8 +17872,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.1.1.6"/>
-    <d v="2018-02-01T15:51:00"/>
+    <x v="51"/>
+    <x v="101"/>
     <m/>
     <x v="2"/>
   </r>
@@ -17490,8 +17900,8 @@
     <x v="8"/>
     <s v="Other"/>
     <m/>
-    <s v="6.7.2.15"/>
-    <d v="2018-02-09T10:14:00"/>
+    <x v="52"/>
+    <x v="102"/>
     <m/>
     <x v="10"/>
   </r>
@@ -17518,8 +17928,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.4.0.14"/>
-    <d v="2018-02-18T22:44:00"/>
+    <x v="7"/>
+    <x v="103"/>
     <m/>
     <x v="1"/>
   </r>
@@ -17546,8 +17956,8 @@
     <x v="12"/>
     <m/>
     <m/>
-    <s v="7.4.9"/>
-    <d v="2018-02-20T09:27:00"/>
+    <x v="53"/>
+    <x v="104"/>
     <m/>
     <x v="1"/>
   </r>
@@ -17574,8 +17984,8 @@
     <x v="7"/>
     <m/>
     <m/>
-    <s v="7.2.1"/>
-    <d v="2018-03-05T13:43:00"/>
+    <x v="50"/>
+    <x v="105"/>
     <m/>
     <x v="3"/>
   </r>
@@ -17602,8 +18012,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.5.0.4"/>
-    <d v="2018-03-06T06:47:00"/>
+    <x v="54"/>
+    <x v="106"/>
     <m/>
     <x v="5"/>
   </r>
@@ -17630,8 +18040,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.5.0.6"/>
-    <d v="2018-03-08T14:01:00"/>
+    <x v="10"/>
+    <x v="107"/>
     <m/>
     <x v="5"/>
   </r>
@@ -17658,8 +18068,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.5.0.6"/>
-    <d v="2018-03-08T19:15:00"/>
+    <x v="10"/>
+    <x v="108"/>
     <m/>
     <x v="5"/>
   </r>
@@ -17686,8 +18096,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2018-03-09T23:31:00"/>
+    <x v="0"/>
+    <x v="109"/>
     <s v="Fixed"/>
     <x v="0"/>
   </r>
@@ -17714,8 +18124,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.2.1.53"/>
-    <d v="2018-03-14T08:46:00"/>
+    <x v="5"/>
+    <x v="110"/>
     <m/>
     <x v="3"/>
   </r>
@@ -17742,8 +18152,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.2.1.53"/>
-    <d v="2018-03-16T08:26:00"/>
+    <x v="5"/>
+    <x v="111"/>
     <m/>
     <x v="3"/>
   </r>
@@ -17770,8 +18180,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <n v="7.5"/>
-    <d v="2018-04-10T10:56:00"/>
+    <x v="13"/>
+    <x v="112"/>
     <s v="Fixed"/>
     <x v="5"/>
   </r>
@@ -17798,8 +18208,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <s v="7.5.0.6"/>
-    <d v="2018-04-20T09:54:00"/>
+    <x v="10"/>
+    <x v="113"/>
     <m/>
     <x v="5"/>
   </r>
@@ -17826,8 +18236,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.3.1"/>
-    <d v="2018-04-22T19:36:00"/>
+    <x v="41"/>
+    <x v="114"/>
     <m/>
     <x v="6"/>
   </r>
@@ -17854,8 +18264,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.3.1"/>
-    <d v="2018-04-22T19:46:00"/>
+    <x v="41"/>
+    <x v="115"/>
     <m/>
     <x v="6"/>
   </r>
@@ -17882,8 +18292,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.4.0.14"/>
-    <d v="2018-04-24T15:05:00"/>
+    <x v="7"/>
+    <x v="116"/>
     <m/>
     <x v="1"/>
   </r>
@@ -17910,8 +18320,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.4.0.14"/>
-    <d v="2018-05-14T13:41:00"/>
+    <x v="7"/>
+    <x v="117"/>
     <m/>
     <x v="1"/>
   </r>
@@ -17938,8 +18348,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.4.0.14"/>
-    <d v="2018-05-15T17:13:00"/>
+    <x v="7"/>
+    <x v="118"/>
     <m/>
     <x v="1"/>
   </r>
@@ -17966,8 +18376,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.2.1.53"/>
-    <d v="2018-05-22T04:15:00"/>
+    <x v="5"/>
+    <x v="119"/>
     <m/>
     <x v="3"/>
   </r>
@@ -17994,8 +18404,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <n v="7.1"/>
-    <d v="2018-05-31T10:24:00"/>
+    <x v="32"/>
+    <x v="120"/>
     <m/>
     <x v="2"/>
   </r>
@@ -18022,8 +18432,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <s v="7.5.0.7"/>
-    <d v="2018-06-05T04:14:00"/>
+    <x v="55"/>
+    <x v="121"/>
     <m/>
     <x v="5"/>
   </r>
@@ -18050,8 +18460,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <n v="7.5"/>
-    <d v="2018-06-12T10:25:00"/>
+    <x v="13"/>
+    <x v="122"/>
     <m/>
     <x v="5"/>
   </r>
@@ -18078,8 +18488,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.5.0.6"/>
-    <d v="2018-06-15T17:13:00"/>
+    <x v="10"/>
+    <x v="123"/>
     <m/>
     <x v="5"/>
   </r>
@@ -18106,8 +18516,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <s v="6.6.2.14"/>
-    <d v="2018-07-06T05:11:00"/>
+    <x v="56"/>
+    <x v="124"/>
     <m/>
     <x v="11"/>
   </r>
@@ -18134,8 +18544,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <s v="7.4.0.14"/>
-    <d v="2018-07-11T08:47:00"/>
+    <x v="7"/>
+    <x v="125"/>
     <m/>
     <x v="1"/>
   </r>
@@ -18162,8 +18572,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.2.1.50"/>
-    <d v="2018-07-16T16:54:00"/>
+    <x v="4"/>
+    <x v="126"/>
     <m/>
     <x v="3"/>
   </r>
@@ -18190,8 +18600,8 @@
     <x v="11"/>
     <m/>
     <m/>
-    <s v="7.6.0.4"/>
-    <d v="2018-07-24T09:51:00"/>
+    <x v="14"/>
+    <x v="127"/>
     <m/>
     <x v="0"/>
   </r>
@@ -18218,8 +18628,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.2.1.53"/>
-    <d v="2018-08-13T06:47:00"/>
+    <x v="5"/>
+    <x v="128"/>
     <m/>
     <x v="3"/>
   </r>
@@ -18246,8 +18656,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.4.0.15"/>
-    <d v="2018-08-21T05:47:00"/>
+    <x v="57"/>
+    <x v="129"/>
     <m/>
     <x v="1"/>
   </r>
@@ -18274,8 +18684,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.7.0.1"/>
-    <d v="2018-08-21T09:19:00"/>
+    <x v="21"/>
+    <x v="130"/>
     <m/>
     <x v="7"/>
   </r>
@@ -18302,8 +18712,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="6.7.2"/>
-    <d v="2018-08-27T08:53:00"/>
+    <x v="58"/>
+    <x v="131"/>
     <m/>
     <x v="10"/>
   </r>
@@ -18330,8 +18740,8 @@
     <x v="2"/>
     <s v="Services Manager"/>
     <m/>
-    <n v="7.6"/>
-    <d v="2018-08-29T14:40:00"/>
+    <x v="0"/>
+    <x v="132"/>
     <m/>
     <x v="0"/>
   </r>
@@ -18358,8 +18768,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <n v="7.5"/>
-    <d v="2018-08-29T16:24:00"/>
+    <x v="13"/>
+    <x v="133"/>
     <m/>
     <x v="5"/>
   </r>
@@ -18386,8 +18796,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <n v="7.5"/>
-    <d v="2018-08-29T16:38:00"/>
+    <x v="13"/>
+    <x v="134"/>
     <m/>
     <x v="5"/>
   </r>
@@ -18414,8 +18824,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <n v="7.5"/>
-    <d v="2018-08-29T16:42:00"/>
+    <x v="13"/>
+    <x v="135"/>
     <m/>
     <x v="5"/>
   </r>
@@ -18442,8 +18852,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <n v="7.5"/>
-    <d v="2018-08-29T17:24:00"/>
+    <x v="13"/>
+    <x v="136"/>
     <m/>
     <x v="5"/>
   </r>
@@ -18470,8 +18880,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.4.0.15"/>
-    <d v="2018-08-30T08:42:00"/>
+    <x v="57"/>
+    <x v="137"/>
     <m/>
     <x v="1"/>
   </r>
@@ -18498,8 +18908,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="6.7.2.14"/>
-    <d v="2018-08-30T09:08:00"/>
+    <x v="59"/>
+    <x v="138"/>
     <m/>
     <x v="10"/>
   </r>
@@ -18526,8 +18936,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="6.7.2.15"/>
-    <d v="2018-08-31T07:44:00"/>
+    <x v="52"/>
+    <x v="139"/>
     <m/>
     <x v="10"/>
   </r>
@@ -18554,8 +18964,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.4.0.11"/>
-    <d v="2018-08-31T09:07:00"/>
+    <x v="6"/>
+    <x v="140"/>
     <m/>
     <x v="1"/>
   </r>
@@ -18582,8 +18992,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <n v="7.5"/>
-    <d v="2018-09-04T11:56:00"/>
+    <x v="13"/>
+    <x v="141"/>
     <m/>
     <x v="5"/>
   </r>
@@ -18610,8 +19020,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <s v="6.7.2"/>
-    <d v="2018-09-14T01:43:00"/>
+    <x v="58"/>
+    <x v="142"/>
     <m/>
     <x v="10"/>
   </r>
@@ -18638,8 +19048,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <s v="7.5.0.3"/>
-    <d v="2018-09-17T17:04:00"/>
+    <x v="11"/>
+    <x v="143"/>
     <m/>
     <x v="5"/>
   </r>
@@ -18666,8 +19076,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="6.7.0.14"/>
-    <d v="2018-10-11T00:40:00"/>
+    <x v="60"/>
+    <x v="144"/>
     <m/>
     <x v="10"/>
   </r>
@@ -18694,8 +19104,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <n v="7.4"/>
-    <d v="2018-10-11T05:19:00"/>
+    <x v="12"/>
+    <x v="145"/>
     <m/>
     <x v="1"/>
   </r>
@@ -18722,8 +19132,8 @@
     <x v="9"/>
     <m/>
     <m/>
-    <s v="7.2.1.21"/>
-    <d v="2018-10-15T06:24:00"/>
+    <x v="61"/>
+    <x v="146"/>
     <m/>
     <x v="3"/>
   </r>
@@ -18750,8 +19160,8 @@
     <x v="13"/>
     <s v="NR Search"/>
     <m/>
-    <s v="7.5.0.3"/>
-    <d v="2018-10-16T15:28:00"/>
+    <x v="11"/>
+    <x v="147"/>
     <m/>
     <x v="5"/>
   </r>
@@ -18778,8 +19188,8 @@
     <x v="4"/>
     <m/>
     <m/>
-    <s v="7.4.0.14"/>
-    <d v="2018-10-30T03:25:00"/>
+    <x v="7"/>
+    <x v="148"/>
     <m/>
     <x v="1"/>
   </r>
@@ -18806,8 +19216,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.6.0.4"/>
-    <d v="2018-11-05T12:53:00"/>
+    <x v="14"/>
+    <x v="149"/>
     <m/>
     <x v="0"/>
   </r>
@@ -18834,8 +19244,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2018-11-05T13:25:00"/>
+    <x v="0"/>
+    <x v="150"/>
     <m/>
     <x v="0"/>
   </r>
@@ -18862,8 +19272,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <n v="7.2"/>
-    <d v="2018-11-20T16:42:00"/>
+    <x v="62"/>
+    <x v="151"/>
     <m/>
     <x v="3"/>
   </r>
@@ -18890,8 +19300,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.5.0.6"/>
-    <d v="2018-11-20T17:28:00"/>
+    <x v="10"/>
+    <x v="152"/>
     <m/>
     <x v="5"/>
   </r>
@@ -18918,8 +19328,8 @@
     <x v="11"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2018-11-21T00:44:00"/>
+    <x v="0"/>
+    <x v="153"/>
     <m/>
     <x v="0"/>
   </r>
@@ -18946,8 +19356,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.6.0.3"/>
-    <d v="2018-11-30T11:01:00"/>
+    <x v="63"/>
+    <x v="154"/>
     <m/>
     <x v="0"/>
   </r>
@@ -18974,8 +19384,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.4.0.14"/>
-    <d v="2018-12-03T15:47:00"/>
+    <x v="7"/>
+    <x v="155"/>
     <m/>
     <x v="1"/>
   </r>
@@ -19002,8 +19412,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2018-12-04T12:01:00"/>
+    <x v="0"/>
+    <x v="156"/>
     <m/>
     <x v="0"/>
   </r>
@@ -19030,8 +19440,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2018-12-13T03:31:00"/>
+    <x v="0"/>
+    <x v="157"/>
     <m/>
     <x v="0"/>
   </r>
@@ -19058,8 +19468,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.6.0.6"/>
-    <d v="2018-12-18T23:57:00"/>
+    <x v="22"/>
+    <x v="158"/>
     <m/>
     <x v="0"/>
   </r>
@@ -19086,8 +19496,8 @@
     <x v="4"/>
     <s v="Watchlist Manager"/>
     <m/>
-    <s v="7.6.0.5"/>
-    <d v="2019-01-01T23:00:00"/>
+    <x v="40"/>
+    <x v="159"/>
     <m/>
     <x v="0"/>
   </r>
@@ -19114,8 +19524,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.1.1.8"/>
-    <d v="2019-01-07T11:26:00"/>
+    <x v="64"/>
+    <x v="160"/>
     <m/>
     <x v="2"/>
   </r>
@@ -19142,8 +19552,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.5.0.10"/>
-    <d v="2019-01-07T14:41:00"/>
+    <x v="23"/>
+    <x v="161"/>
     <m/>
     <x v="5"/>
   </r>
@@ -19170,8 +19580,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.3.1"/>
-    <d v="2019-01-10T17:44:00"/>
+    <x v="41"/>
+    <x v="162"/>
     <m/>
     <x v="6"/>
   </r>
@@ -19198,8 +19608,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.7.0.3"/>
-    <d v="2019-01-16T11:52:00"/>
+    <x v="20"/>
+    <x v="163"/>
     <m/>
     <x v="7"/>
   </r>
@@ -19226,8 +19636,8 @@
     <x v="9"/>
     <m/>
     <m/>
-    <s v="7.6.0.7"/>
-    <d v="2019-01-23T13:37:00"/>
+    <x v="16"/>
+    <x v="164"/>
     <m/>
     <x v="0"/>
   </r>
@@ -19254,8 +19664,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.5.0.11"/>
-    <d v="2019-01-25T12:14:00"/>
+    <x v="29"/>
+    <x v="165"/>
     <m/>
     <x v="5"/>
   </r>
@@ -19282,8 +19692,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <s v="7.2.1"/>
-    <d v="2019-01-28T16:03:00"/>
+    <x v="50"/>
+    <x v="166"/>
     <m/>
     <x v="3"/>
   </r>
@@ -19310,8 +19720,8 @@
     <x v="12"/>
     <m/>
     <m/>
-    <s v="7.6.0.6"/>
-    <d v="2019-02-01T04:17:00"/>
+    <x v="22"/>
+    <x v="167"/>
     <m/>
     <x v="0"/>
   </r>
@@ -19338,8 +19748,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <s v="7.2."/>
-    <d v="2019-02-01T09:15:00"/>
+    <x v="65"/>
+    <x v="168"/>
     <m/>
     <x v="3"/>
   </r>
@@ -19366,8 +19776,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2019-02-11T06:55:00"/>
+    <x v="0"/>
+    <x v="169"/>
     <m/>
     <x v="0"/>
   </r>
@@ -19394,8 +19804,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.5.0.11"/>
-    <d v="2019-02-11T11:17:00"/>
+    <x v="29"/>
+    <x v="170"/>
     <m/>
     <x v="5"/>
   </r>
@@ -19422,8 +19832,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.5"/>
-    <d v="2019-02-13T06:43:00"/>
+    <x v="40"/>
+    <x v="171"/>
     <m/>
     <x v="0"/>
   </r>
@@ -19450,8 +19860,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.2.0.14 "/>
-    <d v="2019-02-14T00:35:00"/>
+    <x v="27"/>
+    <x v="172"/>
     <m/>
     <x v="3"/>
   </r>
@@ -19478,8 +19888,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.2.0.14 "/>
-    <d v="2019-02-14T05:16:00"/>
+    <x v="27"/>
+    <x v="173"/>
     <m/>
     <x v="3"/>
   </r>
@@ -19506,8 +19916,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <n v="7.2"/>
-    <d v="2019-02-14T13:39:00"/>
+    <x v="62"/>
+    <x v="174"/>
     <m/>
     <x v="3"/>
   </r>
@@ -19534,8 +19944,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <s v="7.6.0.0"/>
-    <d v="2019-02-15T12:47:00"/>
+    <x v="66"/>
+    <x v="175"/>
     <m/>
     <x v="0"/>
   </r>
@@ -19562,8 +19972,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <s v="7.6.0.5"/>
-    <d v="2019-02-18T11:44:00"/>
+    <x v="40"/>
+    <x v="176"/>
     <m/>
     <x v="0"/>
   </r>
@@ -19590,8 +20000,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2019-02-20T07:41:00"/>
+    <x v="0"/>
+    <x v="177"/>
     <m/>
     <x v="0"/>
   </r>
@@ -19618,8 +20028,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.9"/>
-    <d v="2019-02-21T04:15:00"/>
+    <x v="34"/>
+    <x v="178"/>
     <s v="Fixed"/>
     <x v="0"/>
   </r>
@@ -19646,8 +20056,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <s v="7.1.1.11"/>
-    <d v="2019-02-21T16:20:00"/>
+    <x v="67"/>
+    <x v="179"/>
     <m/>
     <x v="2"/>
   </r>
@@ -19674,8 +20084,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <s v="6.7.2.18"/>
-    <d v="2019-02-22T14:37:00"/>
+    <x v="68"/>
+    <x v="180"/>
     <m/>
     <x v="10"/>
   </r>
@@ -19702,8 +20112,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <s v="7.5.0.5"/>
-    <d v="2019-02-25T13:26:00"/>
+    <x v="48"/>
+    <x v="181"/>
     <m/>
     <x v="5"/>
   </r>
@@ -19730,8 +20140,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <n v="7.3"/>
-    <d v="2019-02-25T17:42:00"/>
+    <x v="69"/>
+    <x v="182"/>
     <m/>
     <x v="6"/>
   </r>
@@ -19758,8 +20168,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <s v="7.5.0.3"/>
-    <d v="2019-02-26T14:40:00"/>
+    <x v="11"/>
+    <x v="183"/>
     <m/>
     <x v="5"/>
   </r>
@@ -19786,8 +20196,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.1.0.6"/>
-    <d v="2019-02-28T14:51:00"/>
+    <x v="70"/>
+    <x v="184"/>
     <m/>
     <x v="2"/>
   </r>
@@ -19814,8 +20224,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.1.2.53"/>
-    <d v="2019-02-28T17:24:00"/>
+    <x v="71"/>
+    <x v="185"/>
     <m/>
     <x v="2"/>
   </r>
@@ -19842,8 +20252,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <s v="7.5.0.3"/>
-    <d v="2019-03-04T08:30:00"/>
+    <x v="11"/>
+    <x v="186"/>
     <m/>
     <x v="5"/>
   </r>
@@ -19870,8 +20280,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2019-03-06T05:40:00"/>
+    <x v="0"/>
+    <x v="187"/>
     <m/>
     <x v="0"/>
   </r>
@@ -19898,8 +20308,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <s v="7.6.0.7"/>
-    <d v="2019-03-06T13:23:00"/>
+    <x v="16"/>
+    <x v="188"/>
     <m/>
     <x v="0"/>
   </r>
@@ -19926,8 +20336,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <s v="7.2.0.14 "/>
-    <d v="2019-03-07T01:20:00"/>
+    <x v="27"/>
+    <x v="189"/>
     <m/>
     <x v="3"/>
   </r>
@@ -19954,8 +20364,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.7.0.3"/>
-    <d v="2019-03-07T11:43:00"/>
+    <x v="20"/>
+    <x v="190"/>
     <s v="Fixed"/>
     <x v="7"/>
   </r>
@@ -19982,8 +20392,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2019-03-07T15:29:00"/>
+    <x v="0"/>
+    <x v="191"/>
     <m/>
     <x v="0"/>
   </r>
@@ -20010,8 +20420,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2019-03-07T15:42:00"/>
+    <x v="0"/>
+    <x v="192"/>
     <m/>
     <x v="0"/>
   </r>
@@ -20038,8 +20448,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <s v="7.2.0.14 "/>
-    <d v="2019-03-08T02:54:00"/>
+    <x v="27"/>
+    <x v="193"/>
     <m/>
     <x v="3"/>
   </r>
@@ -20066,8 +20476,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2019-03-11T13:12:00"/>
+    <x v="0"/>
+    <x v="194"/>
     <m/>
     <x v="0"/>
   </r>
@@ -20094,8 +20504,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.2.0.14 "/>
-    <d v="2019-03-13T03:22:00"/>
+    <x v="27"/>
+    <x v="195"/>
     <m/>
     <x v="3"/>
   </r>
@@ -20122,8 +20532,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <s v="7.6.0.6"/>
-    <d v="2019-03-13T04:15:00"/>
+    <x v="22"/>
+    <x v="196"/>
     <m/>
     <x v="0"/>
   </r>
@@ -20150,8 +20560,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <n v="7.7"/>
-    <d v="2019-03-14T15:38:00"/>
+    <x v="28"/>
+    <x v="197"/>
     <m/>
     <x v="7"/>
   </r>
@@ -20178,8 +20588,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <s v="7.2.0.14"/>
-    <d v="2019-03-21T05:57:00"/>
+    <x v="26"/>
+    <x v="198"/>
     <m/>
     <x v="3"/>
   </r>
@@ -20206,8 +20616,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.2.0.14"/>
-    <d v="2019-03-22T00:15:00"/>
+    <x v="26"/>
+    <x v="199"/>
     <m/>
     <x v="3"/>
   </r>
@@ -20234,8 +20644,8 @@
     <x v="12"/>
     <m/>
     <m/>
-    <s v="7.5.0.5"/>
-    <d v="2019-03-27T07:19:00"/>
+    <x v="48"/>
+    <x v="200"/>
     <m/>
     <x v="5"/>
   </r>
@@ -20262,8 +20672,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <s v="6.1.2.92"/>
-    <d v="2019-04-01T14:52:00"/>
+    <x v="72"/>
+    <x v="201"/>
     <m/>
     <x v="4"/>
   </r>
@@ -20290,8 +20700,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2019-04-04T14:18:00"/>
+    <x v="0"/>
+    <x v="202"/>
     <m/>
     <x v="0"/>
   </r>
@@ -20318,8 +20728,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <s v="7.5.0.5"/>
-    <d v="2019-04-10T08:09:00"/>
+    <x v="48"/>
+    <x v="203"/>
     <m/>
     <x v="5"/>
   </r>
@@ -20346,8 +20756,8 @@
     <x v="7"/>
     <m/>
     <m/>
-    <s v="8.0.0.1"/>
-    <d v="2019-04-19T15:16:00"/>
+    <x v="36"/>
+    <x v="204"/>
     <m/>
     <x v="9"/>
   </r>
@@ -20374,8 +20784,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <s v="7.6.0.10"/>
-    <d v="2019-04-22T09:42:00"/>
+    <x v="24"/>
+    <x v="205"/>
     <m/>
     <x v="0"/>
   </r>
@@ -20402,8 +20812,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="6.6.2.15"/>
-    <d v="2019-04-23T09:58:00"/>
+    <x v="73"/>
+    <x v="206"/>
     <s v="Fixed"/>
     <x v="11"/>
   </r>
@@ -20430,8 +20840,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <s v="7.6.0.5"/>
-    <d v="2019-04-24T09:16:00"/>
+    <x v="40"/>
+    <x v="207"/>
     <m/>
     <x v="0"/>
   </r>
@@ -20458,8 +20868,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.0.1.5"/>
-    <d v="2019-05-06T10:53:00"/>
+    <x v="74"/>
+    <x v="208"/>
     <m/>
     <x v="8"/>
   </r>
@@ -20486,8 +20896,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2019-05-09T00:57:00"/>
+    <x v="0"/>
+    <x v="209"/>
     <m/>
     <x v="0"/>
   </r>
@@ -20514,8 +20924,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <n v="7.5"/>
-    <d v="2019-05-09T01:00:00"/>
+    <x v="13"/>
+    <x v="210"/>
     <m/>
     <x v="5"/>
   </r>
@@ -20542,8 +20952,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <n v="7.7"/>
-    <d v="2019-05-10T09:55:00"/>
+    <x v="28"/>
+    <x v="211"/>
     <m/>
     <x v="7"/>
   </r>
@@ -20570,8 +20980,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.5.0.3"/>
-    <d v="2019-05-10T11:38:00"/>
+    <x v="11"/>
+    <x v="212"/>
     <m/>
     <x v="5"/>
   </r>
@@ -20598,8 +21008,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2019-05-15T00:38:00"/>
+    <x v="0"/>
+    <x v="213"/>
     <m/>
     <x v="0"/>
   </r>
@@ -20626,8 +21036,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.3.1.6"/>
-    <d v="2019-05-15T14:43:00"/>
+    <x v="19"/>
+    <x v="214"/>
     <m/>
     <x v="6"/>
   </r>
@@ -20654,8 +21064,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.5.0.11 "/>
-    <d v="2019-05-17T16:07:00"/>
+    <x v="75"/>
+    <x v="215"/>
     <m/>
     <x v="5"/>
   </r>
@@ -20682,8 +21092,8 @@
     <x v="12"/>
     <m/>
     <m/>
-    <n v="7.7"/>
-    <d v="2019-05-20T15:36:00"/>
+    <x v="28"/>
+    <x v="216"/>
     <m/>
     <x v="7"/>
   </r>
@@ -20710,8 +21120,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.9"/>
-    <d v="2019-05-22T07:31:00"/>
+    <x v="34"/>
+    <x v="217"/>
     <m/>
     <x v="0"/>
   </r>
@@ -20738,8 +21148,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <s v="7.6.0.10"/>
-    <d v="2019-05-25T04:15:00"/>
+    <x v="24"/>
+    <x v="218"/>
     <m/>
     <x v="0"/>
   </r>
@@ -20766,8 +21176,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <n v="7.7"/>
-    <d v="2019-05-29T11:29:00"/>
+    <x v="28"/>
+    <x v="219"/>
     <m/>
     <x v="7"/>
   </r>
@@ -20794,8 +21204,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <n v="7.7"/>
-    <d v="2019-05-31T01:55:00"/>
+    <x v="28"/>
+    <x v="220"/>
     <m/>
     <x v="7"/>
   </r>
@@ -20822,8 +21232,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <n v="7.7"/>
-    <d v="2019-06-12T07:29:00"/>
+    <x v="28"/>
+    <x v="221"/>
     <m/>
     <x v="7"/>
   </r>
@@ -20850,8 +21260,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <s v="8.0.0.0"/>
-    <d v="2019-06-12T15:53:00"/>
+    <x v="38"/>
+    <x v="222"/>
     <m/>
     <x v="9"/>
   </r>
@@ -20878,8 +21288,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="6.5.2.19"/>
-    <d v="2019-06-24T10:16:00"/>
+    <x v="76"/>
+    <x v="223"/>
     <m/>
     <x v="12"/>
   </r>
@@ -20906,8 +21316,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.6"/>
-    <d v="2019-06-25T08:21:00"/>
+    <x v="22"/>
+    <x v="224"/>
     <m/>
     <x v="0"/>
   </r>
@@ -20934,8 +21344,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <n v="7.7"/>
-    <d v="2019-06-26T09:49:00"/>
+    <x v="28"/>
+    <x v="225"/>
     <m/>
     <x v="7"/>
   </r>
@@ -20962,8 +21372,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2019-07-04T09:17:00"/>
+    <x v="0"/>
+    <x v="226"/>
     <m/>
     <x v="0"/>
   </r>
@@ -20990,8 +21400,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.6.0.6"/>
-    <d v="2019-07-08T05:33:00"/>
+    <x v="22"/>
+    <x v="227"/>
     <m/>
     <x v="0"/>
   </r>
@@ -21018,8 +21428,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <n v="7.7"/>
-    <d v="2019-07-11T08:24:00"/>
+    <x v="28"/>
+    <x v="228"/>
     <m/>
     <x v="7"/>
   </r>
@@ -21046,8 +21456,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <n v="7.7"/>
-    <d v="2019-07-11T08:30:00"/>
+    <x v="28"/>
+    <x v="229"/>
     <m/>
     <x v="7"/>
   </r>
@@ -21074,8 +21484,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2019-07-12T08:54:00"/>
+    <x v="0"/>
+    <x v="230"/>
     <m/>
     <x v="0"/>
   </r>
@@ -21102,8 +21512,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.7.0.2"/>
-    <d v="2019-07-17T03:58:00"/>
+    <x v="31"/>
+    <x v="231"/>
     <m/>
     <x v="7"/>
   </r>
@@ -21130,8 +21540,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.5.0.12 "/>
-    <d v="2019-07-19T16:25:00"/>
+    <x v="47"/>
+    <x v="232"/>
     <m/>
     <x v="5"/>
   </r>
@@ -21158,8 +21568,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.2.0.15"/>
-    <d v="2019-07-26T09:27:00"/>
+    <x v="3"/>
+    <x v="233"/>
     <m/>
     <x v="3"/>
   </r>
@@ -21186,8 +21596,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.5"/>
-    <d v="2019-07-29T07:53:00"/>
+    <x v="40"/>
+    <x v="234"/>
     <m/>
     <x v="0"/>
   </r>
@@ -21214,8 +21624,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <s v="7.6.0.4"/>
-    <d v="2019-07-29T13:04:00"/>
+    <x v="14"/>
+    <x v="235"/>
     <m/>
     <x v="0"/>
   </r>
@@ -21242,8 +21652,8 @@
     <x v="10"/>
     <m/>
     <m/>
-    <s v="7.7.0.8"/>
-    <d v="2019-07-29T13:32:00"/>
+    <x v="77"/>
+    <x v="236"/>
     <m/>
     <x v="7"/>
   </r>
@@ -21270,8 +21680,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <s v="8.0.0.0"/>
-    <d v="2019-07-30T12:17:00"/>
+    <x v="38"/>
+    <x v="237"/>
     <m/>
     <x v="9"/>
   </r>
@@ -21298,8 +21708,8 @@
     <x v="10"/>
     <m/>
     <m/>
-    <s v="7.7.0.2 "/>
-    <d v="2019-07-31T08:42:00"/>
+    <x v="78"/>
+    <x v="238"/>
     <m/>
     <x v="7"/>
   </r>
@@ -21326,8 +21736,8 @@
     <x v="9"/>
     <m/>
     <m/>
-    <n v="7.7"/>
-    <d v="2019-08-02T16:18:00"/>
+    <x v="28"/>
+    <x v="239"/>
     <m/>
     <x v="7"/>
   </r>
@@ -21354,8 +21764,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.0.1.5"/>
-    <d v="2019-08-05T07:51:00"/>
+    <x v="74"/>
+    <x v="240"/>
     <m/>
     <x v="8"/>
   </r>
@@ -21382,8 +21792,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <s v="7.4.0.14"/>
-    <d v="2019-08-06T06:21:00"/>
+    <x v="7"/>
+    <x v="241"/>
     <m/>
     <x v="1"/>
   </r>
@@ -21410,8 +21820,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="8.0.0.2"/>
-    <d v="2019-08-07T14:33:00"/>
+    <x v="37"/>
+    <x v="242"/>
     <s v="Fixed"/>
     <x v="9"/>
   </r>
@@ -21438,8 +21848,8 @@
     <x v="12"/>
     <m/>
     <m/>
-    <s v="7.4.0.11"/>
-    <d v="2019-08-19T12:40:00"/>
+    <x v="6"/>
+    <x v="243"/>
     <m/>
     <x v="1"/>
   </r>
@@ -21466,8 +21876,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <n v="7.2"/>
-    <d v="2019-08-19T14:42:00"/>
+    <x v="62"/>
+    <x v="244"/>
     <m/>
     <x v="3"/>
   </r>
@@ -21494,8 +21904,8 @@
     <x v="12"/>
     <m/>
     <m/>
-    <s v="8.0.0.2"/>
-    <d v="2019-08-19T16:36:00"/>
+    <x v="37"/>
+    <x v="245"/>
     <m/>
     <x v="9"/>
   </r>
@@ -21522,8 +21932,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.6.0.7"/>
-    <d v="2019-08-23T11:13:00"/>
+    <x v="16"/>
+    <x v="246"/>
     <m/>
     <x v="0"/>
   </r>
@@ -21550,8 +21960,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="8.0.1.3"/>
-    <d v="2019-08-29T14:54:00"/>
+    <x v="43"/>
+    <x v="247"/>
     <m/>
     <x v="9"/>
   </r>
@@ -21578,8 +21988,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.5"/>
-    <d v="2019-09-04T04:48:00"/>
+    <x v="40"/>
+    <x v="248"/>
     <m/>
     <x v="0"/>
   </r>
@@ -21606,8 +22016,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="8.0.1.4"/>
-    <d v="2019-09-05T08:49:00"/>
+    <x v="79"/>
+    <x v="249"/>
     <m/>
     <x v="9"/>
   </r>
@@ -21634,8 +22044,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.6.0.5"/>
-    <d v="2019-09-09T00:30:00"/>
+    <x v="40"/>
+    <x v="250"/>
     <m/>
     <x v="0"/>
   </r>
@@ -21662,8 +22072,8 @@
     <x v="2"/>
     <s v="Base Platform"/>
     <s v="Workflow Configurator"/>
-    <s v="7.2.1.47"/>
-    <d v="2019-09-10T09:29:00"/>
+    <x v="80"/>
+    <x v="251"/>
     <m/>
     <x v="3"/>
   </r>
@@ -21690,8 +22100,8 @@
     <x v="10"/>
     <m/>
     <m/>
-    <s v="8.0.1.2"/>
-    <d v="2019-09-11T08:32:00"/>
+    <x v="81"/>
+    <x v="252"/>
     <m/>
     <x v="9"/>
   </r>
@@ -21718,8 +22128,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.5"/>
-    <d v="2019-09-13T07:00:00"/>
+    <x v="40"/>
+    <x v="253"/>
     <s v="Fixed"/>
     <x v="0"/>
   </r>
@@ -21746,8 +22156,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.5"/>
-    <d v="2019-09-16T03:05:00"/>
+    <x v="40"/>
+    <x v="254"/>
     <s v="Fixed"/>
     <x v="0"/>
   </r>
@@ -21774,8 +22184,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="8.0.1.3"/>
-    <d v="2019-09-16T13:38:00"/>
+    <x v="43"/>
+    <x v="255"/>
     <m/>
     <x v="9"/>
   </r>
@@ -21802,8 +22212,8 @@
     <x v="10"/>
     <m/>
     <m/>
-    <s v="7.6.0.5"/>
-    <d v="2019-09-18T07:27:00"/>
+    <x v="40"/>
+    <x v="256"/>
     <m/>
     <x v="0"/>
   </r>
@@ -21830,8 +22240,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2019-09-18T14:18:00"/>
+    <x v="0"/>
+    <x v="257"/>
     <m/>
     <x v="0"/>
   </r>
@@ -21858,8 +22268,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <s v="7.4.0.14"/>
-    <d v="2019-09-20T07:50:00"/>
+    <x v="7"/>
+    <x v="258"/>
     <m/>
     <x v="1"/>
   </r>
@@ -21886,8 +22296,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.7.0.2"/>
-    <d v="2019-09-20T09:03:00"/>
+    <x v="31"/>
+    <x v="259"/>
     <s v="Fixed"/>
     <x v="7"/>
   </r>
@@ -21914,8 +22324,8 @@
     <x v="10"/>
     <m/>
     <m/>
-    <s v="7.4.0.0"/>
-    <d v="2019-09-23T07:00:00"/>
+    <x v="82"/>
+    <x v="260"/>
     <m/>
     <x v="1"/>
   </r>
@@ -21942,8 +22352,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.7.0.7"/>
-    <d v="2019-09-25T12:06:00"/>
+    <x v="42"/>
+    <x v="261"/>
     <m/>
     <x v="7"/>
   </r>
@@ -21970,8 +22380,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.5"/>
-    <d v="2019-09-26T02:44:00"/>
+    <x v="40"/>
+    <x v="262"/>
     <m/>
     <x v="0"/>
   </r>
@@ -21998,8 +22408,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <n v="7.7"/>
-    <d v="2019-10-07T10:40:00"/>
+    <x v="28"/>
+    <x v="263"/>
     <m/>
     <x v="7"/>
   </r>
@@ -22026,8 +22436,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.6.0.10"/>
-    <d v="2019-10-09T04:20:00"/>
+    <x v="24"/>
+    <x v="264"/>
     <m/>
     <x v="0"/>
   </r>
@@ -22054,8 +22464,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.5.0.5"/>
-    <d v="2019-10-11T13:39:00"/>
+    <x v="48"/>
+    <x v="265"/>
     <m/>
     <x v="5"/>
   </r>
@@ -22082,8 +22492,8 @@
     <x v="10"/>
     <m/>
     <m/>
-    <s v="7.6.0.9"/>
-    <d v="2019-10-15T17:52:00"/>
+    <x v="34"/>
+    <x v="266"/>
     <m/>
     <x v="0"/>
   </r>
@@ -22110,8 +22520,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="8.0.0.0"/>
-    <d v="2019-10-16T10:41:00"/>
+    <x v="38"/>
+    <x v="267"/>
     <m/>
     <x v="9"/>
   </r>
@@ -22138,8 +22548,8 @@
     <x v="11"/>
     <m/>
     <m/>
-    <s v="8.0.0.0"/>
-    <d v="2019-10-17T13:04:00"/>
+    <x v="38"/>
+    <x v="268"/>
     <m/>
     <x v="9"/>
   </r>
@@ -22166,8 +22576,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="6.1.2.96"/>
-    <d v="2019-10-18T19:57:00"/>
+    <x v="83"/>
+    <x v="269"/>
     <m/>
     <x v="4"/>
   </r>
@@ -22194,8 +22604,8 @@
     <x v="10"/>
     <m/>
     <m/>
-    <s v="7.0.1.1"/>
-    <d v="2019-10-22T17:12:00"/>
+    <x v="84"/>
+    <x v="270"/>
     <m/>
     <x v="8"/>
   </r>
@@ -22222,8 +22632,8 @@
     <x v="10"/>
     <m/>
     <m/>
-    <s v="8.0.1.5"/>
-    <d v="2019-10-25T10:22:00"/>
+    <x v="44"/>
+    <x v="271"/>
     <m/>
     <x v="9"/>
   </r>
@@ -22250,8 +22660,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <s v="8.0.0.0"/>
-    <d v="2019-10-25T10:25:00"/>
+    <x v="38"/>
+    <x v="272"/>
     <m/>
     <x v="9"/>
   </r>
@@ -22278,8 +22688,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <s v="7.6.0.0"/>
-    <d v="2019-10-25T14:58:00"/>
+    <x v="66"/>
+    <x v="273"/>
     <m/>
     <x v="0"/>
   </r>
@@ -22306,8 +22716,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.5.0.12"/>
-    <d v="2019-10-29T10:19:00"/>
+    <x v="85"/>
+    <x v="274"/>
     <m/>
     <x v="5"/>
   </r>
@@ -22334,8 +22744,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.5"/>
-    <d v="2019-10-30T14:53:00"/>
+    <x v="40"/>
+    <x v="275"/>
     <s v="Fixed"/>
     <x v="0"/>
   </r>
@@ -22362,8 +22772,8 @@
     <x v="10"/>
     <m/>
     <m/>
-    <n v="7.2"/>
-    <d v="2019-11-04T11:22:00"/>
+    <x v="62"/>
+    <x v="276"/>
     <m/>
     <x v="3"/>
   </r>
@@ -22390,8 +22800,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <n v="7.2"/>
-    <d v="2019-11-06T15:27:00"/>
+    <x v="62"/>
+    <x v="277"/>
     <m/>
     <x v="3"/>
   </r>
@@ -22418,8 +22828,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.7.0.8"/>
-    <d v="2019-11-06T18:48:00"/>
+    <x v="77"/>
+    <x v="278"/>
     <m/>
     <x v="7"/>
   </r>
@@ -22446,8 +22856,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.6.0.10"/>
-    <d v="2019-11-07T08:56:00"/>
+    <x v="24"/>
+    <x v="279"/>
     <m/>
     <x v="0"/>
   </r>
@@ -22474,8 +22884,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.10"/>
-    <d v="2019-11-07T10:40:00"/>
+    <x v="24"/>
+    <x v="280"/>
     <m/>
     <x v="0"/>
   </r>
@@ -22502,8 +22912,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <n v="7.6"/>
-    <d v="2019-11-11T22:16:00"/>
+    <x v="0"/>
+    <x v="281"/>
     <m/>
     <x v="0"/>
   </r>
@@ -22530,8 +22940,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <n v="7.7"/>
-    <d v="2019-11-13T17:11:00"/>
+    <x v="28"/>
+    <x v="282"/>
     <m/>
     <x v="7"/>
   </r>
@@ -22558,8 +22968,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <s v="8.0.0.2"/>
-    <d v="2019-11-15T15:55:00"/>
+    <x v="37"/>
+    <x v="283"/>
     <m/>
     <x v="9"/>
   </r>
@@ -22586,8 +22996,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="7.6.0.13"/>
-    <d v="2019-11-20T09:37:00"/>
+    <x v="45"/>
+    <x v="284"/>
     <m/>
     <x v="0"/>
   </r>
@@ -22614,8 +23024,8 @@
     <x v="9"/>
     <s v="CDD"/>
     <m/>
-    <n v="7.6"/>
-    <d v="2019-11-22T07:44:00"/>
+    <x v="0"/>
+    <x v="285"/>
     <m/>
     <x v="0"/>
   </r>
@@ -22642,8 +23052,8 @@
     <x v="9"/>
     <m/>
     <m/>
-    <s v="7.6.0.10"/>
-    <d v="2019-11-22T10:29:00"/>
+    <x v="24"/>
+    <x v="286"/>
     <m/>
     <x v="0"/>
   </r>
@@ -22670,8 +23080,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <s v="7.6.0.10"/>
-    <d v="2019-11-22T11:02:00"/>
+    <x v="24"/>
+    <x v="287"/>
     <m/>
     <x v="0"/>
   </r>
@@ -22698,8 +23108,8 @@
     <x v="10"/>
     <m/>
     <m/>
-    <s v="7.6.0.4"/>
-    <d v="2019-11-26T13:44:00"/>
+    <x v="14"/>
+    <x v="288"/>
     <m/>
     <x v="0"/>
   </r>
@@ -22726,8 +23136,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="8.0.1.4"/>
-    <d v="2019-11-27T08:54:00"/>
+    <x v="79"/>
+    <x v="289"/>
     <m/>
     <x v="9"/>
   </r>
@@ -22754,8 +23164,8 @@
     <x v="6"/>
     <s v="Watchlist Manager"/>
     <m/>
-    <s v="7.6.0.5"/>
-    <d v="2019-11-28T04:47:00"/>
+    <x v="40"/>
+    <x v="290"/>
     <m/>
     <x v="0"/>
   </r>
@@ -22782,8 +23192,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <n v="7.4"/>
-    <d v="2019-12-06T05:17:00"/>
+    <x v="12"/>
+    <x v="291"/>
     <m/>
     <x v="1"/>
   </r>
@@ -22810,8 +23220,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="8.0.1.5"/>
-    <d v="2019-12-10T05:51:00"/>
+    <x v="44"/>
+    <x v="292"/>
     <m/>
     <x v="9"/>
   </r>
@@ -22838,8 +23248,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <n v="7.1"/>
-    <d v="2019-12-12T04:50:00"/>
+    <x v="32"/>
+    <x v="293"/>
     <m/>
     <x v="2"/>
   </r>
@@ -22866,8 +23276,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <n v="7.2"/>
-    <d v="2019-12-12T14:32:00"/>
+    <x v="62"/>
+    <x v="294"/>
     <m/>
     <x v="3"/>
   </r>
@@ -22894,8 +23304,8 @@
     <x v="10"/>
     <m/>
     <m/>
-    <s v="7.5.0.12"/>
-    <d v="2019-12-12T16:30:00"/>
+    <x v="85"/>
+    <x v="295"/>
     <m/>
     <x v="5"/>
   </r>
@@ -22922,8 +23332,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.7.0.7"/>
-    <d v="2019-12-19T14:25:00"/>
+    <x v="42"/>
+    <x v="296"/>
     <m/>
     <x v="7"/>
   </r>
@@ -22950,8 +23360,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <n v="7.4"/>
-    <d v="2020-01-07T05:24:00"/>
+    <x v="12"/>
+    <x v="297"/>
     <m/>
     <x v="1"/>
   </r>
@@ -22978,8 +23388,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <s v="7.5.0.11"/>
-    <d v="2020-01-08T16:18:00"/>
+    <x v="29"/>
+    <x v="298"/>
     <m/>
     <x v="5"/>
   </r>
@@ -23006,8 +23416,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.6.0.4"/>
-    <d v="2020-01-13T17:01:00"/>
+    <x v="14"/>
+    <x v="299"/>
     <m/>
     <x v="0"/>
   </r>
@@ -23034,8 +23444,8 @@
     <x v="9"/>
     <m/>
     <m/>
-    <s v="7.6.0.11"/>
-    <d v="2020-01-17T09:40:00"/>
+    <x v="39"/>
+    <x v="300"/>
     <m/>
     <x v="0"/>
   </r>
@@ -23062,8 +23472,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.3.1.5"/>
-    <d v="2018-05-21T19:57:00"/>
+    <x v="17"/>
+    <x v="301"/>
     <m/>
     <x v="6"/>
   </r>
@@ -23090,8 +23500,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.1.1.6"/>
-    <d v="2018-09-10T08:52:00"/>
+    <x v="51"/>
+    <x v="302"/>
     <m/>
     <x v="2"/>
   </r>
@@ -23118,8 +23528,8 @@
     <x v="6"/>
     <m/>
     <m/>
-    <s v="6.7.2.17"/>
-    <d v="2019-02-26T11:04:00"/>
+    <x v="86"/>
+    <x v="303"/>
     <m/>
     <x v="10"/>
   </r>
@@ -23146,8 +23556,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <s v="6.7.2.14"/>
-    <d v="2019-03-20T09:26:00"/>
+    <x v="59"/>
+    <x v="304"/>
     <m/>
     <x v="10"/>
   </r>
@@ -23174,8 +23584,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.3.1"/>
-    <d v="2019-04-03T21:14:00"/>
+    <x v="41"/>
+    <x v="305"/>
     <m/>
     <x v="6"/>
   </r>
@@ -23202,8 +23612,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.3.1.5"/>
-    <d v="2019-05-21T11:42:00"/>
+    <x v="17"/>
+    <x v="306"/>
     <m/>
     <x v="6"/>
   </r>
@@ -23230,8 +23640,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <n v="7.5"/>
-    <d v="2019-05-29T13:22:00"/>
+    <x v="13"/>
+    <x v="307"/>
     <m/>
     <x v="5"/>
   </r>
@@ -23258,8 +23668,8 @@
     <x v="3"/>
     <m/>
     <m/>
-    <s v="7.7.0.7"/>
-    <d v="2019-06-05T08:25:00"/>
+    <x v="42"/>
+    <x v="308"/>
     <m/>
     <x v="7"/>
   </r>
@@ -23286,8 +23696,8 @@
     <x v="0"/>
     <m/>
     <m/>
-    <s v="7.5.0.12"/>
-    <d v="2019-07-19T10:58:00"/>
+    <x v="85"/>
+    <x v="309"/>
     <m/>
     <x v="5"/>
   </r>
@@ -23314,8 +23724,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <s v="8.0.0.0"/>
-    <d v="2019-07-23T18:45:00"/>
+    <x v="38"/>
+    <x v="310"/>
     <m/>
     <x v="9"/>
   </r>
@@ -23342,8 +23752,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="8.0.0.1"/>
-    <d v="2019-10-03T10:18:00"/>
+    <x v="36"/>
+    <x v="311"/>
     <m/>
     <x v="9"/>
   </r>
@@ -23370,8 +23780,8 @@
     <x v="5"/>
     <m/>
     <m/>
-    <s v="8.0.1"/>
-    <d v="2019-11-01T02:49:00"/>
+    <x v="87"/>
+    <x v="312"/>
     <m/>
     <x v="9"/>
   </r>
@@ -23398,8 +23808,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <s v="7.5.0.3"/>
-    <d v="2019-03-05T08:13:00"/>
+    <x v="11"/>
+    <x v="313"/>
     <m/>
     <x v="5"/>
   </r>
@@ -23878,8 +24288,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB3:AC17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB3:AC61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="26">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -23915,14 +24325,424 @@
         <item sd="0" x="0"/>
         <item sd="0" x="4"/>
         <item sd="0" x="1"/>
-        <item sd="0" x="12"/>
+        <item x="12"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0" sortType="descending"/>
-    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField showAll="0" sortType="descending">
+      <items count="89">
+        <item x="44"/>
+        <item x="79"/>
+        <item x="43"/>
+        <item x="81"/>
+        <item x="87"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="38"/>
+        <item x="77"/>
+        <item x="42"/>
+        <item x="33"/>
+        <item x="35"/>
+        <item x="20"/>
+        <item x="78"/>
+        <item x="31"/>
+        <item x="46"/>
+        <item x="21"/>
+        <item x="34"/>
+        <item x="16"/>
+        <item x="22"/>
+        <item x="40"/>
+        <item x="14"/>
+        <item x="63"/>
+        <item x="45"/>
+        <item x="39"/>
+        <item x="24"/>
+        <item x="66"/>
+        <item x="30"/>
+        <item x="55"/>
+        <item x="10"/>
+        <item x="48"/>
+        <item x="54"/>
+        <item x="11"/>
+        <item x="47"/>
+        <item x="85"/>
+        <item x="75"/>
+        <item x="29"/>
+        <item x="23"/>
+        <item x="53"/>
+        <item x="57"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="82"/>
+        <item x="19"/>
+        <item x="17"/>
+        <item x="41"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item x="80"/>
+        <item x="8"/>
+        <item x="61"/>
+        <item x="50"/>
+        <item x="3"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="65"/>
+        <item x="71"/>
+        <item x="64"/>
+        <item x="18"/>
+        <item x="51"/>
+        <item x="67"/>
+        <item x="2"/>
+        <item x="70"/>
+        <item x="25"/>
+        <item x="74"/>
+        <item x="84"/>
+        <item x="68"/>
+        <item x="86"/>
+        <item x="52"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="60"/>
+        <item x="73"/>
+        <item x="56"/>
+        <item x="76"/>
+        <item x="83"/>
+        <item x="72"/>
+        <item x="49"/>
+        <item x="9"/>
+        <item x="28"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="69"/>
+        <item x="62"/>
+        <item x="32"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="22" showAll="0">
+      <items count="315">
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="4"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="5"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="6"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="301"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="10"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="11"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="12"/>
+        <item x="126"/>
+        <item x="13"/>
+        <item x="127"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="141"/>
+        <item x="302"/>
+        <item x="20"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="31"/>
+        <item x="164"/>
+        <item x="32"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="35"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="36"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="303"/>
+        <item x="183"/>
+        <item x="37"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="313"/>
+        <item x="38"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="39"/>
+        <item x="197"/>
+        <item x="40"/>
+        <item x="304"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="43"/>
+        <item x="200"/>
+        <item x="44"/>
+        <item x="201"/>
+        <item x="305"/>
+        <item x="45"/>
+        <item x="202"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="203"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="0"/>
+        <item x="52"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="53"/>
+        <item x="213"/>
+        <item x="54"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="306"/>
+        <item x="57"/>
+        <item x="217"/>
+        <item x="58"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="307"/>
+        <item x="220"/>
+        <item x="59"/>
+        <item x="308"/>
+        <item x="60"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="61"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="62"/>
+        <item x="225"/>
+        <item x="63"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="66"/>
+        <item x="231"/>
+        <item x="309"/>
+        <item x="232"/>
+        <item x="310"/>
+        <item x="233"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="69"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="72"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="73"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="74"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="75"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="76"/>
+        <item x="256"/>
+        <item x="77"/>
+        <item x="257"/>
+        <item x="78"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="79"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="80"/>
+        <item x="311"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="81"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="82"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="312"/>
+        <item x="83"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="84"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="85"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="1"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="86"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="87"/>
+        <item x="296"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="297"/>
+        <item x="91"/>
+        <item x="298"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="299"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="300"/>
+        <item x="96"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="14">
@@ -23934,20 +24754,21 @@
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
         <item sd="0" x="6"/>
-        <item sd="0" x="1"/>
+        <item x="1"/>
         <item sd="0" x="5"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="7"/>
+        <item x="0"/>
+        <item x="7"/>
         <item sd="0" m="1" x="13"/>
-        <item sd="0" x="9"/>
+        <item x="9"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="3">
     <field x="25"/>
     <field x="19"/>
+    <field x="23"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="58">
     <i>
       <x/>
     </i>
@@ -23975,17 +24796,149 @@
     <i>
       <x v="8"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="229"/>
+    </i>
     <i>
       <x v="9"/>
     </i>
     <i>
       <x v="10"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="103"/>
+    </i>
     <i>
       <x v="11"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="179"/>
+    </i>
     <i>
       <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="231"/>
     </i>
     <i t="grand">
       <x/>
@@ -41723,8 +42676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+    <sheetView tabSelected="1" topLeftCell="X10" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41746,7 +42699,7 @@
     <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5546875" customWidth="1"/>
+    <col min="28" max="28" width="24.6640625" customWidth="1"/>
     <col min="29" max="29" width="17.77734375" customWidth="1"/>
     <col min="30" max="30" width="17" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="16" customWidth="1"/>
@@ -41877,7 +42830,7 @@
         <v>43850.589583333334</v>
       </c>
       <c r="Z2" s="13" t="str">
-        <f>LEFT(W2,3)</f>
+        <f t="shared" ref="Z2:Z65" si="0">LEFT(W2,3)</f>
         <v>7.5</v>
       </c>
     </row>
@@ -41919,7 +42872,7 @@
         <v>43847.402777777781</v>
       </c>
       <c r="Z3" s="13" t="str">
-        <f>LEFT(W3,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
       <c r="AB3" s="4" t="s">
@@ -41970,7 +42923,7 @@
         <v>43847.352083333331</v>
       </c>
       <c r="Z4" s="13" t="str">
-        <f>LEFT(W4,3)</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="AB4" s="5" t="s">
@@ -42024,7 +42977,7 @@
         <v>43844.423611111109</v>
       </c>
       <c r="Z5" s="13" t="str">
-        <f>LEFT(W5,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
       <c r="AB5" s="5" t="s">
@@ -42078,7 +43031,7 @@
         <v>43843.709027777775</v>
       </c>
       <c r="Z6" s="13" t="str">
-        <f>LEFT(W6,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
       <c r="AB6" s="5" t="s">
@@ -42126,7 +43079,7 @@
         <v>43840.513194444444</v>
       </c>
       <c r="Z7" s="13" t="str">
-        <f>LEFT(W7,3)</f>
+        <f t="shared" si="0"/>
         <v>8.0</v>
       </c>
       <c r="AB7" s="5" t="s">
@@ -42174,7 +43127,7 @@
         <v>43840.413888888892</v>
       </c>
       <c r="Z8" s="13" t="str">
-        <f>LEFT(W8,3)</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="AB8" s="5" t="s">
@@ -42222,7 +43175,7 @@
         <v>43838.679166666669</v>
       </c>
       <c r="Z9" s="13" t="str">
-        <f>LEFT(W9,3)</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="AB9" s="5" t="s">
@@ -42276,7 +43229,7 @@
         <v>43838.477083333331</v>
       </c>
       <c r="Z10" s="13" t="str">
-        <f>LEFT(W10,3)</f>
+        <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
       <c r="AB10" s="5" t="s">
@@ -42324,7 +43277,7 @@
         <v>43837.224999999999</v>
       </c>
       <c r="Z11" s="13" t="str">
-        <f>LEFT(W11,3)</f>
+        <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
       <c r="AB11" s="5" t="s">
@@ -42372,15 +43325,13 @@
         <v>43836.402083333334</v>
       </c>
       <c r="Z12" s="13" t="str">
-        <f>LEFT(W12,3)</f>
+        <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
       <c r="AB12" s="5" t="s">
         <v>1657</v>
       </c>
-      <c r="AC12" s="6">
-        <v>28</v>
-      </c>
+      <c r="AC12" s="6"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -42423,14 +43374,14 @@
         <v>43818.986805555556</v>
       </c>
       <c r="Z13" s="13" t="str">
-        <f>LEFT(W13,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB13" s="5" t="s">
-        <v>1658</v>
+      <c r="AB13" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="AC13" s="6">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
@@ -42471,14 +43422,14 @@
         <v>43818.96597222222</v>
       </c>
       <c r="Z14" s="13" t="str">
-        <f>LEFT(W14,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB14" s="5" t="s">
-        <v>1659</v>
+      <c r="AB14" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="AC14" s="6">
-        <v>85</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
@@ -42519,14 +43470,14 @@
         <v>43818.600694444445</v>
       </c>
       <c r="Z15" s="13" t="str">
-        <f>LEFT(W15,3)</f>
+        <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="AB15" s="5" t="s">
-        <v>1660</v>
+      <c r="AB15" s="14" t="s">
+        <v>1313</v>
       </c>
       <c r="AC15" s="6">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
@@ -42570,14 +43521,14 @@
         <v>43812.348611111112</v>
       </c>
       <c r="Z16" s="13" t="str">
-        <f>LEFT(W16,3)</f>
+        <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="AB16" s="5" t="s">
-        <v>1664</v>
+      <c r="AB16" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="AC16" s="6">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
@@ -42618,14 +43569,14 @@
         <v>43811.6875</v>
       </c>
       <c r="Z17" s="13" t="str">
-        <f>LEFT(W17,3)</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="AB17" s="5" t="s">
-        <v>1343</v>
+      <c r="AB17" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="AC17" s="6">
-        <v>314</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
@@ -42666,8 +43617,14 @@
         <v>43811.605555555558</v>
       </c>
       <c r="Z18" s="13" t="str">
-        <f>LEFT(W18,3)</f>
+        <f t="shared" si="0"/>
         <v>7.2</v>
+      </c>
+      <c r="AB18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
@@ -42708,8 +43665,14 @@
         <v>43811.201388888891</v>
       </c>
       <c r="Z19" s="13" t="str">
-        <f>LEFT(W19,3)</f>
+        <f t="shared" si="0"/>
         <v>7.1</v>
+      </c>
+      <c r="AB19" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
@@ -42750,8 +43713,14 @@
         <v>43811.102777777778</v>
       </c>
       <c r="Z20" s="13" t="str">
-        <f>LEFT(W20,3)</f>
+        <f t="shared" si="0"/>
         <v>8.0</v>
+      </c>
+      <c r="AB20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
@@ -42792,8 +43761,14 @@
         <v>43809.243750000001</v>
       </c>
       <c r="Z21" s="13" t="str">
-        <f>LEFT(W21,3)</f>
+        <f t="shared" si="0"/>
         <v>8.0</v>
+      </c>
+      <c r="AB21" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC21" s="6">
+        <v>2</v>
       </c>
       <c r="AE21" s="7" t="s">
         <v>1345</v>
@@ -42843,8 +43818,14 @@
         <v>43805.220138888886</v>
       </c>
       <c r="Z22" s="13" t="str">
-        <f>LEFT(W22,3)</f>
+        <f t="shared" si="0"/>
         <v>7.4</v>
+      </c>
+      <c r="AB22" s="15">
+        <v>43151.393750000003</v>
+      </c>
+      <c r="AC22" s="6">
+        <v>1</v>
       </c>
       <c r="AE22" s="5">
         <v>7.5</v>
@@ -42897,8 +43878,14 @@
         <v>43798.493055555555</v>
       </c>
       <c r="Z23" s="13" t="str">
-        <f>LEFT(W23,3)</f>
+        <f t="shared" si="0"/>
         <v>7.4</v>
+      </c>
+      <c r="AB23" s="15">
+        <v>43696.527777777781</v>
+      </c>
+      <c r="AC23" s="6">
+        <v>1</v>
       </c>
       <c r="AE23" s="5">
         <v>7.6</v>
@@ -42951,8 +43938,14 @@
         <v>43797.199305555558</v>
       </c>
       <c r="Z24" s="13" t="str">
-        <f>LEFT(W24,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
+      </c>
+      <c r="AB24" s="5" t="s">
+        <v>1658</v>
+      </c>
+      <c r="AC24" s="6">
+        <v>49</v>
       </c>
       <c r="AE24" s="5">
         <v>7.7</v>
@@ -43002,9 +43995,13 @@
         <v>43796.370833333334</v>
       </c>
       <c r="Z25" s="13" t="str">
-        <f>LEFT(W25,3)</f>
+        <f t="shared" si="0"/>
         <v>8.0</v>
       </c>
+      <c r="AB25" s="5" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AC25" s="6"/>
       <c r="AE25" s="12">
         <v>8</v>
       </c>
@@ -43053,8 +44050,14 @@
         <v>43795.572222222225</v>
       </c>
       <c r="Z26" s="13" t="str">
-        <f>LEFT(W26,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
+      </c>
+      <c r="AB26" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC26" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
@@ -43095,8 +44098,14 @@
         <v>43791.459722222222</v>
       </c>
       <c r="Z27" s="13" t="str">
-        <f>LEFT(W27,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
+      </c>
+      <c r="AB27" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC27" s="6">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
@@ -43137,8 +44146,14 @@
         <v>43791.436805555553</v>
       </c>
       <c r="Z28" s="13" t="str">
-        <f>LEFT(W28,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
+      </c>
+      <c r="AB28" s="14" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AC28" s="6">
+        <v>6</v>
       </c>
       <c r="AE28" t="s">
         <v>1665</v>
@@ -43185,8 +44200,14 @@
         <v>43791.322222222225</v>
       </c>
       <c r="Z29" s="13" t="str">
-        <f>LEFT(W29,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
+      </c>
+      <c r="AB29" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC29" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
@@ -43227,8 +44248,14 @@
         <v>43789.400694444441</v>
       </c>
       <c r="Z30" s="13" t="str">
-        <f>LEFT(W30,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
+      </c>
+      <c r="AB30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC30" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
@@ -43272,8 +44299,14 @@
         <v>43784.663194444445</v>
       </c>
       <c r="Z31" s="13" t="str">
-        <f>LEFT(W31,3)</f>
+        <f t="shared" si="0"/>
         <v>8.0</v>
+      </c>
+      <c r="AB31" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC31" s="6">
+        <v>5</v>
       </c>
       <c r="AE31" t="s">
         <v>1345</v>
@@ -43326,8 +44359,14 @@
         <v>43782.71597222222</v>
       </c>
       <c r="Z32" s="13" t="str">
-        <f>LEFT(W32,3)</f>
+        <f t="shared" si="0"/>
         <v>7.7</v>
+      </c>
+      <c r="AB32" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC32" s="6">
+        <v>8</v>
       </c>
       <c r="AE32">
         <v>7.5</v>
@@ -43377,8 +44416,14 @@
         <v>43782.51458333333</v>
       </c>
       <c r="Z33" s="13" t="str">
-        <f>LEFT(W33,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
+      </c>
+      <c r="AB33" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC33" s="6">
+        <v>10</v>
       </c>
       <c r="AE33">
         <v>7.6</v>
@@ -43428,8 +44473,14 @@
         <v>43780.927777777775</v>
       </c>
       <c r="Z34" s="13" t="str">
-        <f>LEFT(W34,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
+      </c>
+      <c r="AB34" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC34" s="6">
+        <v>3</v>
       </c>
       <c r="AE34">
         <v>7.7</v>
@@ -43479,8 +44530,14 @@
         <v>43776.444444444445</v>
       </c>
       <c r="Z35" s="13" t="str">
-        <f>LEFT(W35,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
+      </c>
+      <c r="AB35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC35" s="6">
+        <v>23</v>
       </c>
       <c r="AE35" s="13">
         <v>8</v>
@@ -43530,8 +44587,14 @@
         <v>43776.419444444444</v>
       </c>
       <c r="Z36" s="13" t="str">
-        <f>LEFT(W36,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
+      </c>
+      <c r="AB36" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC36" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
@@ -43572,8 +44635,14 @@
         <v>43776.37222222222</v>
       </c>
       <c r="Z37" s="13" t="str">
-        <f>LEFT(W37,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
+      </c>
+      <c r="AB37" s="15">
+        <v>43497.178472222222</v>
+      </c>
+      <c r="AC37" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.3">
@@ -43620,9 +44689,13 @@
         <v>43775.783333333333</v>
       </c>
       <c r="Z38" s="13" t="str">
-        <f>LEFT(W38,3)</f>
+        <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
+      <c r="AB38" s="5" t="s">
+        <v>1660</v>
+      </c>
+      <c r="AC38" s="6"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -43662,8 +44735,14 @@
         <v>43775.643750000003</v>
       </c>
       <c r="Z39" s="13" t="str">
-        <f>LEFT(W39,3)</f>
+        <f t="shared" si="0"/>
         <v>7.2</v>
+      </c>
+      <c r="AB39" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC39" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.3">
@@ -43704,8 +44783,14 @@
         <v>43773.473611111112</v>
       </c>
       <c r="Z40" s="13" t="str">
-        <f>LEFT(W40,3)</f>
+        <f t="shared" si="0"/>
         <v>7.2</v>
+      </c>
+      <c r="AB40" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC40" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
@@ -43752,8 +44837,14 @@
         <v>1485</v>
       </c>
       <c r="Z41" s="13" t="str">
-        <f>LEFT(W41,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
+      </c>
+      <c r="AB41" s="14" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AC41" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.3">
@@ -43794,8 +44885,14 @@
         <v>43770.117361111108</v>
       </c>
       <c r="Z42" s="13" t="str">
-        <f>LEFT(W42,3)</f>
+        <f t="shared" si="0"/>
         <v>8.0</v>
+      </c>
+      <c r="AB42" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC42" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.3">
@@ -43845,8 +44942,14 @@
         <v>1485</v>
       </c>
       <c r="Z43" s="13" t="str">
-        <f>LEFT(W43,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
+      </c>
+      <c r="AB43" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC43" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">
@@ -43887,8 +44990,14 @@
         <v>43767.429861111108</v>
       </c>
       <c r="Z44" s="13" t="str">
-        <f>LEFT(W44,3)</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
+      </c>
+      <c r="AB44" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC44" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.3">
@@ -43929,8 +45038,14 @@
         <v>43763.623611111114</v>
       </c>
       <c r="Z45" s="13" t="str">
-        <f>LEFT(W45,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
+      </c>
+      <c r="AB45" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC45" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.3">
@@ -43971,8 +45086,14 @@
         <v>43763.434027777781</v>
       </c>
       <c r="Z46" s="13" t="str">
-        <f>LEFT(W46,3)</f>
+        <f t="shared" si="0"/>
         <v>8.0</v>
+      </c>
+      <c r="AB46" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC46" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.3">
@@ -44013,8 +45134,14 @@
         <v>43763.431944444441</v>
       </c>
       <c r="Z47" s="13" t="str">
-        <f>LEFT(W47,3)</f>
+        <f t="shared" si="0"/>
         <v>8.0</v>
+      </c>
+      <c r="AB47" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC47" s="6">
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.3">
@@ -44055,11 +45182,17 @@
         <v>43760.716666666667</v>
       </c>
       <c r="Z48" s="13" t="str">
-        <f>LEFT(W48,3)</f>
+        <f t="shared" si="0"/>
         <v>7.0</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB48" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -44097,11 +45230,17 @@
         <v>43756.831250000003</v>
       </c>
       <c r="Z49" s="13" t="str">
-        <f>LEFT(W49,3)</f>
+        <f t="shared" si="0"/>
         <v>6.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB49" s="15">
+        <v>43605.65</v>
+      </c>
+      <c r="AC49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -44139,11 +45278,15 @@
         <v>43756.537499999999</v>
       </c>
       <c r="Z50" s="13" t="str">
-        <f>LEFT(W50,3)</f>
+        <f t="shared" si="0"/>
         <v>8.0</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB50" s="5" t="s">
+        <v>1664</v>
+      </c>
+      <c r="AC50" s="6"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -44181,11 +45324,17 @@
         <v>43755.544444444444</v>
       </c>
       <c r="Z51" s="13" t="str">
-        <f>LEFT(W51,3)</f>
+        <f t="shared" si="0"/>
         <v>8.0</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB51" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC51" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -44223,11 +45372,17 @@
         <v>43754.445138888892</v>
       </c>
       <c r="Z52" s="13" t="str">
-        <f>LEFT(W52,3)</f>
+        <f t="shared" si="0"/>
         <v>8.0</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB52" s="14" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AC52" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -44268,11 +45423,17 @@
         <v>43753.744444444441</v>
       </c>
       <c r="Z53" s="13" t="str">
-        <f>LEFT(W53,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -44310,11 +45471,17 @@
         <v>43749.568749999999</v>
       </c>
       <c r="Z54" s="13" t="str">
-        <f>LEFT(W54,3)</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB54" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC54" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -44352,11 +45519,17 @@
         <v>43747.638888888891</v>
       </c>
       <c r="Z55" s="13" t="str">
-        <f>LEFT(W55,3)</f>
+        <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB55" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -44397,11 +45570,17 @@
         <v>43747.180555555555</v>
       </c>
       <c r="Z56" s="13" t="str">
-        <f>LEFT(W56,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB56" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC56" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -44439,11 +45618,17 @@
         <v>43745.444444444445</v>
       </c>
       <c r="Z57" s="13" t="str">
-        <f>LEFT(W57,3)</f>
+        <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB57" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC57" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -44478,11 +45663,17 @@
         <v>43741.429166666669</v>
       </c>
       <c r="Z58" s="13" t="str">
-        <f>LEFT(W58,3)</f>
+        <f t="shared" si="0"/>
         <v>8.0</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB58" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC58" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -44520,11 +45711,17 @@
         <v>43741.348611111112</v>
       </c>
       <c r="Z59" s="13" t="str">
-        <f>LEFT(W59,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB59" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC59" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -44562,11 +45759,17 @@
         <v>43734.113888888889</v>
       </c>
       <c r="Z60" s="13" t="str">
-        <f>LEFT(W60,3)</f>
+        <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB60" s="15">
+        <v>43696.691666666666</v>
+      </c>
+      <c r="AC60" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -44610,11 +45813,17 @@
         <v>43733.504166666666</v>
       </c>
       <c r="Z61" s="13" t="str">
-        <f>LEFT(W61,3)</f>
+        <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB61" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="AC61" s="6">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -44655,11 +45864,11 @@
         <v>43731.348611111112</v>
       </c>
       <c r="Z62" s="13" t="str">
-        <f>LEFT(W62,3)</f>
+        <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -44700,11 +45909,11 @@
         <v>43731.291666666664</v>
       </c>
       <c r="Z63" s="13" t="str">
-        <f>LEFT(W63,3)</f>
+        <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -44748,7 +45957,7 @@
         <v>1485</v>
       </c>
       <c r="Z64" s="13" t="str">
-        <f>LEFT(W64,3)</f>
+        <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
     </row>
@@ -44790,7 +45999,7 @@
         <v>43728.326388888891</v>
       </c>
       <c r="Z65" s="13" t="str">
-        <f>LEFT(W65,3)</f>
+        <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
     </row>
@@ -44832,7 +46041,7 @@
         <v>43727.64166666667</v>
       </c>
       <c r="Z66" s="13" t="str">
-        <f>LEFT(W66,3)</f>
+        <f t="shared" ref="Z66:Z129" si="1">LEFT(W66,3)</f>
         <v>8.0</v>
       </c>
     </row>
@@ -44874,7 +46083,7 @@
         <v>43726.595833333333</v>
       </c>
       <c r="Z67" s="13" t="str">
-        <f>LEFT(W67,3)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
     </row>
@@ -44919,7 +46128,7 @@
         <v>43726.51458333333</v>
       </c>
       <c r="Z68" s="13" t="str">
-        <f>LEFT(W68,3)</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
     </row>
@@ -44961,7 +46170,7 @@
         <v>43726.310416666667</v>
       </c>
       <c r="Z69" s="13" t="str">
-        <f>LEFT(W69,3)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
     </row>
@@ -45015,7 +46224,7 @@
         <v>43725.411111111112</v>
       </c>
       <c r="Z70" s="13" t="str">
-        <f>LEFT(W70,3)</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
     </row>
@@ -45057,7 +46266,7 @@
         <v>43724.568055555559</v>
       </c>
       <c r="Z71" s="13" t="str">
-        <f>LEFT(W71,3)</f>
+        <f t="shared" si="1"/>
         <v>8.0</v>
       </c>
     </row>
@@ -45105,7 +46314,7 @@
         <v>1485</v>
       </c>
       <c r="Z72" s="13" t="str">
-        <f>LEFT(W72,3)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
     </row>
@@ -45153,7 +46362,7 @@
         <v>1485</v>
       </c>
       <c r="Z73" s="13" t="str">
-        <f>LEFT(W73,3)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
     </row>
@@ -45198,7 +46407,7 @@
         <v>43719.582638888889</v>
       </c>
       <c r="Z74" s="13" t="str">
-        <f>LEFT(W74,3)</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
     </row>
@@ -45243,7 +46452,7 @@
         <v>43719.355555555558</v>
       </c>
       <c r="Z75" s="13" t="str">
-        <f>LEFT(W75,3)</f>
+        <f t="shared" si="1"/>
         <v>8.0</v>
       </c>
     </row>
@@ -45291,7 +46500,7 @@
         <v>43718.395138888889</v>
       </c>
       <c r="Z76" s="13" t="str">
-        <f>LEFT(W76,3)</f>
+        <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
     </row>
@@ -45333,7 +46542,7 @@
         <v>43717.020833333336</v>
       </c>
       <c r="Z77" s="13" t="str">
-        <f>LEFT(W77,3)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
     </row>
@@ -45378,7 +46587,7 @@
         <v>43713.367361111108</v>
       </c>
       <c r="Z78" s="13" t="str">
-        <f>LEFT(W78,3)</f>
+        <f t="shared" si="1"/>
         <v>8.0</v>
       </c>
     </row>
@@ -45423,7 +46632,7 @@
         <v>43712.2</v>
       </c>
       <c r="Z79" s="13" t="str">
-        <f>LEFT(W79,3)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
     </row>
@@ -45465,7 +46674,7 @@
         <v>43710.569444444445</v>
       </c>
       <c r="Z80" s="13" t="str">
-        <f>LEFT(W80,3)</f>
+        <f t="shared" si="1"/>
         <v>8.0</v>
       </c>
     </row>
@@ -45510,7 +46719,7 @@
         <v>43706.620833333334</v>
       </c>
       <c r="Z81" s="13" t="str">
-        <f>LEFT(W81,3)</f>
+        <f t="shared" si="1"/>
         <v>8.0</v>
       </c>
     </row>
@@ -45555,7 +46764,7 @@
         <v>43700.467361111114</v>
       </c>
       <c r="Z82" s="13" t="str">
-        <f>LEFT(W82,3)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
     </row>
@@ -45597,7 +46806,7 @@
         <v>43696.884722222225</v>
       </c>
       <c r="Z83" s="13" t="str">
-        <f>LEFT(W83,3)</f>
+        <f t="shared" si="1"/>
         <v>7.3</v>
       </c>
     </row>
@@ -45639,7 +46848,7 @@
         <v>43696.691666666666</v>
       </c>
       <c r="Z84" s="13" t="str">
-        <f>LEFT(W84,3)</f>
+        <f t="shared" si="1"/>
         <v>8.0</v>
       </c>
     </row>
@@ -45681,7 +46890,7 @@
         <v>43696.612500000003</v>
       </c>
       <c r="Z85" s="13" t="str">
-        <f>LEFT(W85,3)</f>
+        <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
     </row>
@@ -45726,7 +46935,7 @@
         <v>43696.527777777781</v>
       </c>
       <c r="Z86" s="13" t="str">
-        <f>LEFT(W86,3)</f>
+        <f t="shared" si="1"/>
         <v>7.4</v>
       </c>
     </row>
@@ -45771,7 +46980,7 @@
         <v>43691.368750000001</v>
       </c>
       <c r="Z87" s="13" t="str">
-        <f>LEFT(W87,3)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
     </row>
@@ -45819,7 +47028,7 @@
         <v>1485</v>
       </c>
       <c r="Z88" s="13" t="str">
-        <f>LEFT(W88,3)</f>
+        <f t="shared" si="1"/>
         <v>8.0</v>
       </c>
     </row>
@@ -45861,7 +47070,7 @@
         <v>43683.26458333333</v>
       </c>
       <c r="Z89" s="13" t="str">
-        <f>LEFT(W89,3)</f>
+        <f t="shared" si="1"/>
         <v>7.4</v>
       </c>
     </row>
@@ -45903,7 +47112,7 @@
         <v>43683.248611111114</v>
       </c>
       <c r="Z90" s="13" t="str">
-        <f>LEFT(W90,3)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
     </row>
@@ -45945,7 +47154,7 @@
         <v>43682.804166666669</v>
       </c>
       <c r="Z91" s="13" t="str">
-        <f>LEFT(W91,3)</f>
+        <f t="shared" si="1"/>
         <v>8.0</v>
       </c>
     </row>
@@ -45987,7 +47196,7 @@
         <v>43682.32708333333</v>
       </c>
       <c r="Z92" s="13" t="str">
-        <f>LEFT(W92,3)</f>
+        <f t="shared" si="1"/>
         <v>7.0</v>
       </c>
     </row>
@@ -46029,7 +47238,7 @@
         <v>43679.679166666669</v>
       </c>
       <c r="Z93" s="13" t="str">
-        <f>LEFT(W93,3)</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
     </row>
@@ -46074,7 +47283,7 @@
         <v>43678.128472222219</v>
       </c>
       <c r="Z94" s="13" t="str">
-        <f>LEFT(W94,3)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
     </row>
@@ -46116,7 +47325,7 @@
         <v>43677.362500000003</v>
       </c>
       <c r="Z95" s="13" t="str">
-        <f>LEFT(W95,3)</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
     </row>
@@ -46158,7 +47367,7 @@
         <v>43676.511805555558</v>
       </c>
       <c r="Z96" s="13" t="str">
-        <f>LEFT(W96,3)</f>
+        <f t="shared" si="1"/>
         <v>8.0</v>
       </c>
     </row>
@@ -46200,7 +47409,7 @@
         <v>43675.563888888886</v>
       </c>
       <c r="Z97" s="13" t="str">
-        <f>LEFT(W97,3)</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
     </row>
@@ -46242,7 +47451,7 @@
         <v>43675.544444444444</v>
       </c>
       <c r="Z98" s="13" t="str">
-        <f>LEFT(W98,3)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
     </row>
@@ -46284,7 +47493,7 @@
         <v>43675.328472222223</v>
       </c>
       <c r="Z99" s="13" t="str">
-        <f>LEFT(W99,3)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
     </row>
@@ -46329,7 +47538,7 @@
         <v>43675.288888888892</v>
       </c>
       <c r="Z100" s="13" t="str">
-        <f>LEFT(W100,3)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
     </row>
@@ -46371,7 +47580,7 @@
         <v>43672.51458333333</v>
       </c>
       <c r="Z101" s="13" t="str">
-        <f>LEFT(W101,3)</f>
+        <f t="shared" si="1"/>
         <v>8.0</v>
       </c>
     </row>
@@ -46413,7 +47622,7 @@
         <v>43672.393750000003</v>
       </c>
       <c r="Z102" s="13" t="str">
-        <f>LEFT(W102,3)</f>
+        <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
     </row>
@@ -46455,7 +47664,7 @@
         <v>43669.78125</v>
       </c>
       <c r="Z103" s="13" t="str">
-        <f>LEFT(W103,3)</f>
+        <f t="shared" si="1"/>
         <v>8.0</v>
       </c>
     </row>
@@ -46500,7 +47709,7 @@
         <v>43665.684027777781</v>
       </c>
       <c r="Z104" s="13" t="str">
-        <f>LEFT(W104,3)</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
     </row>
@@ -46542,7 +47751,7 @@
         <v>43665.456944444442</v>
       </c>
       <c r="Z105" s="13" t="str">
-        <f>LEFT(W105,3)</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
     </row>
@@ -46584,7 +47793,7 @@
         <v>43663.165277777778</v>
       </c>
       <c r="Z106" s="13" t="str">
-        <f>LEFT(W106,3)</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
     </row>
@@ -46629,7 +47838,7 @@
         <v>43662.761111111111</v>
       </c>
       <c r="Z107" s="13" t="str">
-        <f>LEFT(W107,3)</f>
+        <f t="shared" si="1"/>
         <v>8.0</v>
       </c>
     </row>
@@ -46674,7 +47883,7 @@
         <v>43658.370833333334</v>
       </c>
       <c r="Z108" s="13" t="str">
-        <f>LEFT(W108,3)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
     </row>
@@ -46716,7 +47925,7 @@
         <v>43657.354166666664</v>
       </c>
       <c r="Z109" s="13" t="str">
-        <f>LEFT(W109,3)</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
     </row>
@@ -46758,7 +47967,7 @@
         <v>43657.35</v>
       </c>
       <c r="Z110" s="13" t="str">
-        <f>LEFT(W110,3)</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
     </row>
@@ -46803,7 +48012,7 @@
         <v>43657.196527777778</v>
       </c>
       <c r="Z111" s="13" t="str">
-        <f>LEFT(W111,3)</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
     </row>
@@ -46851,7 +48060,7 @@
         <v>1485</v>
       </c>
       <c r="Z112" s="13" t="str">
-        <f>LEFT(W112,3)</f>
+        <f t="shared" si="1"/>
         <v>8.0</v>
       </c>
     </row>
@@ -46899,7 +48108,7 @@
         <v>43654.231249999997</v>
       </c>
       <c r="Z113" s="13" t="str">
-        <f>LEFT(W113,3)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
     </row>
@@ -46941,7 +48150,7 @@
         <v>43650.386805555558</v>
       </c>
       <c r="Z114" s="13" t="str">
-        <f>LEFT(W114,3)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
     </row>
@@ -46986,7 +48195,7 @@
         <v>43649.609722222223</v>
       </c>
       <c r="Z115" s="13" t="str">
-        <f>LEFT(W115,3)</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
     </row>
@@ -47028,7 +48237,7 @@
         <v>43642.40902777778</v>
       </c>
       <c r="Z116" s="13" t="str">
-        <f>LEFT(W116,3)</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
     </row>
@@ -47079,7 +48288,7 @@
         <v>43641.479861111111</v>
       </c>
       <c r="Z117" s="13" t="str">
-        <f>LEFT(W117,3)</f>
+        <f t="shared" si="1"/>
         <v>8.0</v>
       </c>
     </row>
@@ -47124,7 +48333,7 @@
         <v>43641.347916666666</v>
       </c>
       <c r="Z118" s="13" t="str">
-        <f>LEFT(W118,3)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
     </row>
@@ -47169,7 +48378,7 @@
         <v>43640.427777777775</v>
       </c>
       <c r="Z119" s="13" t="str">
-        <f>LEFT(W119,3)</f>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
     </row>
@@ -47211,7 +48420,7 @@
         <v>43628.703472222223</v>
       </c>
       <c r="Z120" s="13" t="str">
-        <f>LEFT(W120,3)</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
     </row>
@@ -47256,7 +48465,7 @@
         <v>43628.661805555559</v>
       </c>
       <c r="Z121" s="13" t="str">
-        <f>LEFT(W121,3)</f>
+        <f t="shared" si="1"/>
         <v>8.0</v>
       </c>
     </row>
@@ -47298,7 +48507,7 @@
         <v>43628.311805555553</v>
       </c>
       <c r="Z122" s="13" t="str">
-        <f>LEFT(W122,3)</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
     </row>
@@ -47340,7 +48549,7 @@
         <v>43626.70416666667</v>
       </c>
       <c r="Z123" s="13" t="str">
-        <f>LEFT(W123,3)</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
     </row>
@@ -47382,7 +48591,7 @@
         <v>43621.350694444445</v>
       </c>
       <c r="Z124" s="13" t="str">
-        <f>LEFT(W124,3)</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
     </row>
@@ -47424,7 +48633,7 @@
         <v>43616.593055555553</v>
       </c>
       <c r="Z125" s="13" t="str">
-        <f>LEFT(W125,3)</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
     </row>
@@ -47466,7 +48675,7 @@
         <v>43616.079861111109</v>
       </c>
       <c r="Z126" s="13" t="str">
-        <f>LEFT(W126,3)</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
     </row>
@@ -47508,7 +48717,7 @@
         <v>43614.556944444441</v>
       </c>
       <c r="Z127" s="13" t="str">
-        <f>LEFT(W127,3)</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
     </row>
@@ -47550,7 +48759,7 @@
         <v>43614.478472222225</v>
       </c>
       <c r="Z128" s="13" t="str">
-        <f>LEFT(W128,3)</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
     </row>
@@ -47595,7 +48804,7 @@
         <v>43610.177083333336</v>
       </c>
       <c r="Z129" s="13" t="str">
-        <f>LEFT(W129,3)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
     </row>
@@ -47640,7 +48849,7 @@
         <v>43607.875694444447</v>
       </c>
       <c r="Z130" s="13" t="str">
-        <f>LEFT(W130,3)</f>
+        <f t="shared" ref="Z130:Z193" si="2">LEFT(W130,3)</f>
         <v>7.7</v>
       </c>
     </row>
@@ -47682,7 +48891,7 @@
         <v>43607.313194444447</v>
       </c>
       <c r="Z131" s="13" t="str">
-        <f>LEFT(W131,3)</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
     </row>
@@ -47733,7 +48942,7 @@
         <v>1485</v>
       </c>
       <c r="Z132" s="13" t="str">
-        <f>LEFT(W132,3)</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
     </row>
@@ -47775,7 +48984,7 @@
         <v>43606.487500000003</v>
       </c>
       <c r="Z133" s="13" t="str">
-        <f>LEFT(W133,3)</f>
+        <f t="shared" si="2"/>
         <v>7.3</v>
       </c>
     </row>
@@ -47826,7 +49035,7 @@
         <v>1485</v>
       </c>
       <c r="Z134" s="13" t="str">
-        <f>LEFT(W134,3)</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
     </row>
@@ -47868,7 +49077,7 @@
         <v>43605.736111111109</v>
       </c>
       <c r="Z135" s="13" t="str">
-        <f>LEFT(W135,3)</f>
+        <f t="shared" si="2"/>
         <v>7.7</v>
       </c>
     </row>
@@ -47910,7 +49119,7 @@
         <v>43605.65</v>
       </c>
       <c r="Z136" s="13" t="str">
-        <f>LEFT(W136,3)</f>
+        <f t="shared" si="2"/>
         <v>7.7</v>
       </c>
     </row>
@@ -47952,7 +49161,7 @@
         <v>43602.671527777777</v>
       </c>
       <c r="Z137" s="13" t="str">
-        <f>LEFT(W137,3)</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
@@ -47997,7 +49206,7 @@
         <v>43600.613194444442</v>
       </c>
       <c r="Z138" s="13" t="str">
-        <f>LEFT(W138,3)</f>
+        <f t="shared" si="2"/>
         <v>7.3</v>
       </c>
     </row>
@@ -48045,7 +49254,7 @@
         <v>1485</v>
       </c>
       <c r="Z139" s="13" t="str">
-        <f>LEFT(W139,3)</f>
+        <f t="shared" si="2"/>
         <v>7.3</v>
       </c>
     </row>
@@ -48090,7 +49299,7 @@
         <v>43600.026388888888</v>
       </c>
       <c r="Z140" s="13" t="str">
-        <f>LEFT(W140,3)</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
     </row>
@@ -48132,7 +49341,7 @@
         <v>43599.648611111108</v>
       </c>
       <c r="Z141" s="13" t="str">
-        <f>LEFT(W141,3)</f>
+        <f t="shared" si="2"/>
         <v>7.7</v>
       </c>
     </row>
@@ -48174,7 +49383,7 @@
         <v>43595.484722222223</v>
       </c>
       <c r="Z142" s="13" t="str">
-        <f>LEFT(W142,3)</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
@@ -48219,7 +49428,7 @@
         <v>43595.413194444445</v>
       </c>
       <c r="Z143" s="13" t="str">
-        <f>LEFT(W143,3)</f>
+        <f t="shared" si="2"/>
         <v>7.7</v>
       </c>
     </row>
@@ -48261,7 +49470,7 @@
         <v>43594.041666666664</v>
       </c>
       <c r="Z144" s="13" t="str">
-        <f>LEFT(W144,3)</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
@@ -48303,7 +49512,7 @@
         <v>43594.039583333331</v>
       </c>
       <c r="Z145" s="13" t="str">
-        <f>LEFT(W145,3)</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
     </row>
@@ -48345,7 +49554,7 @@
         <v>43591.453472222223</v>
       </c>
       <c r="Z146" s="13" t="str">
-        <f>LEFT(W146,3)</f>
+        <f t="shared" si="2"/>
         <v>7.0</v>
       </c>
     </row>
@@ -48387,7 +49596,7 @@
         <v>43591.217361111114</v>
       </c>
       <c r="Z147" s="13" t="str">
-        <f>LEFT(W147,3)</f>
+        <f t="shared" si="2"/>
         <v>7.1</v>
       </c>
     </row>
@@ -48429,7 +49638,7 @@
         <v>43586.529166666667</v>
       </c>
       <c r="Z148" s="13" t="str">
-        <f>LEFT(W148,3)</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
     </row>
@@ -48474,7 +49683,7 @@
         <v>43579.386111111111</v>
       </c>
       <c r="Z149" s="13" t="str">
-        <f>LEFT(W149,3)</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
     </row>
@@ -48519,7 +49728,7 @@
         <v>1485</v>
       </c>
       <c r="Z150" s="13" t="str">
-        <f>LEFT(W150,3)</f>
+        <f t="shared" si="2"/>
         <v>6.6</v>
       </c>
     </row>
@@ -48561,7 +49770,7 @@
         <v>43577.404166666667</v>
       </c>
       <c r="Z151" s="13" t="str">
-        <f>LEFT(W151,3)</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
     </row>
@@ -48603,7 +49812,7 @@
         <v>43574.636111111111</v>
       </c>
       <c r="Z152" s="13" t="str">
-        <f>LEFT(W152,3)</f>
+        <f t="shared" si="2"/>
         <v>8.0</v>
       </c>
     </row>
@@ -48645,7 +49854,7 @@
         <v>43570.49722222222</v>
       </c>
       <c r="Z153" s="13" t="str">
-        <f>LEFT(W153,3)</f>
+        <f t="shared" si="2"/>
         <v>7.7</v>
       </c>
     </row>
@@ -48687,7 +49896,7 @@
         <v>43570.481249999997</v>
       </c>
       <c r="Z154" s="13" t="str">
-        <f>LEFT(W154,3)</f>
+        <f t="shared" si="2"/>
         <v>7.7</v>
       </c>
     </row>
@@ -48735,7 +49944,7 @@
         <v>1485</v>
       </c>
       <c r="Z155" s="13" t="str">
-        <f>LEFT(W155,3)</f>
+        <f t="shared" si="2"/>
         <v>7.7</v>
       </c>
     </row>
@@ -48777,7 +49986,7 @@
         <v>43565.429861111108</v>
       </c>
       <c r="Z156" s="13" t="str">
-        <f>LEFT(W156,3)</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
     </row>
@@ -48819,7 +50028,7 @@
         <v>43565.339583333334</v>
       </c>
       <c r="Z157" s="13" t="str">
-        <f>LEFT(W157,3)</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
@@ -48882,7 +50091,7 @@
         <v>43564.506249999999</v>
       </c>
       <c r="Z158" s="13" t="str">
-        <f>LEFT(W158,3)</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
@@ -48927,7 +50136,7 @@
         <v>43559.664583333331</v>
       </c>
       <c r="Z159" s="13" t="str">
-        <f>LEFT(W159,3)</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
@@ -48969,7 +50178,7 @@
         <v>43559.595833333333</v>
       </c>
       <c r="Z160" s="13" t="str">
-        <f>LEFT(W160,3)</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
     </row>
@@ -49014,7 +50223,7 @@
         <v>43559.453472222223</v>
       </c>
       <c r="Z161" s="13" t="str">
-        <f>LEFT(W161,3)</f>
+        <f t="shared" si="2"/>
         <v>7.3</v>
       </c>
     </row>
@@ -49056,7 +50265,7 @@
         <v>43558.884722222225</v>
       </c>
       <c r="Z162" s="13" t="str">
-        <f>LEFT(W162,3)</f>
+        <f t="shared" si="2"/>
         <v>7.3</v>
       </c>
     </row>
@@ -49098,7 +50307,7 @@
         <v>43556.619444444441</v>
       </c>
       <c r="Z163" s="13" t="str">
-        <f>LEFT(W163,3)</f>
+        <f t="shared" si="2"/>
         <v>6.1</v>
       </c>
     </row>
@@ -49140,7 +50349,7 @@
         <v>43552.142361111109</v>
       </c>
       <c r="Z164" s="13" t="str">
-        <f>LEFT(W164,3)</f>
+        <f t="shared" si="2"/>
         <v>7.7</v>
       </c>
     </row>
@@ -49182,7 +50391,7 @@
         <v>43551.304861111108</v>
       </c>
       <c r="Z165" s="13" t="str">
-        <f>LEFT(W165,3)</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
@@ -49224,7 +50433,7 @@
         <v>43546.238888888889</v>
       </c>
       <c r="Z166" s="13" t="str">
-        <f>LEFT(W166,3)</f>
+        <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
     </row>
@@ -49266,7 +50475,7 @@
         <v>43546.010416666664</v>
       </c>
       <c r="Z167" s="13" t="str">
-        <f>LEFT(W167,3)</f>
+        <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
     </row>
@@ -49308,7 +50517,7 @@
         <v>43545.247916666667</v>
       </c>
       <c r="Z168" s="13" t="str">
-        <f>LEFT(W168,3)</f>
+        <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
     </row>
@@ -49350,7 +50559,7 @@
         <v>43544.94027777778</v>
       </c>
       <c r="Z169" s="13" t="str">
-        <f>LEFT(W169,3)</f>
+        <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
     </row>
@@ -49392,7 +50601,7 @@
         <v>43544.738888888889</v>
       </c>
       <c r="Z170" s="13" t="str">
-        <f>LEFT(W170,3)</f>
+        <f t="shared" si="2"/>
         <v>7.0</v>
       </c>
     </row>
@@ -49434,7 +50643,7 @@
         <v>43544.393055555556</v>
       </c>
       <c r="Z171" s="13" t="str">
-        <f>LEFT(W171,3)</f>
+        <f t="shared" si="2"/>
         <v>6.7</v>
       </c>
     </row>
@@ -49485,7 +50694,7 @@
         <v>43542.393055555556</v>
       </c>
       <c r="Z172" s="13" t="str">
-        <f>LEFT(W172,3)</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
     </row>
@@ -49527,7 +50736,7 @@
         <v>43538.651388888888</v>
       </c>
       <c r="Z173" s="13" t="str">
-        <f>LEFT(W173,3)</f>
+        <f t="shared" si="2"/>
         <v>7.7</v>
       </c>
     </row>
@@ -49569,7 +50778,7 @@
         <v>43538.161111111112</v>
       </c>
       <c r="Z174" s="13" t="str">
-        <f>LEFT(W174,3)</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
     </row>
@@ -49611,7 +50820,7 @@
         <v>43537.177083333336</v>
       </c>
       <c r="Z175" s="13" t="str">
-        <f>LEFT(W175,3)</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
     </row>
@@ -49656,7 +50865,7 @@
         <v>43537.140277777777</v>
       </c>
       <c r="Z176" s="13" t="str">
-        <f>LEFT(W176,3)</f>
+        <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
     </row>
@@ -49701,7 +50910,7 @@
         <v>43535.55</v>
       </c>
       <c r="Z177" s="13" t="str">
-        <f>LEFT(W177,3)</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
     </row>
@@ -49743,7 +50952,7 @@
         <v>43532.120833333334</v>
       </c>
       <c r="Z178" s="13" t="str">
-        <f>LEFT(W178,3)</f>
+        <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
     </row>
@@ -49785,7 +50994,7 @@
         <v>43531.654166666667</v>
       </c>
       <c r="Z179" s="13" t="str">
-        <f>LEFT(W179,3)</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
     </row>
@@ -49827,7 +51036,7 @@
         <v>43531.645138888889</v>
       </c>
       <c r="Z180" s="13" t="str">
-        <f>LEFT(W180,3)</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
     </row>
@@ -49875,7 +51084,7 @@
         <v>1485</v>
       </c>
       <c r="Z181" s="13" t="str">
-        <f>LEFT(W181,3)</f>
+        <f t="shared" si="2"/>
         <v>7.7</v>
       </c>
     </row>
@@ -49917,7 +51126,7 @@
         <v>43531.055555555555</v>
       </c>
       <c r="Z182" s="13" t="str">
-        <f>LEFT(W182,3)</f>
+        <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
     </row>
@@ -49962,7 +51171,7 @@
         <v>43530.557638888888</v>
       </c>
       <c r="Z183" s="13" t="str">
-        <f>LEFT(W183,3)</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
     </row>
@@ -50007,7 +51216,7 @@
         <v>43530.236111111109</v>
       </c>
       <c r="Z184" s="13" t="str">
-        <f>LEFT(W184,3)</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
     </row>
@@ -50052,7 +51261,7 @@
         <v>43530.228472222225</v>
       </c>
       <c r="Z185" s="13" t="str">
-        <f>LEFT(W185,3)</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
     </row>
@@ -50094,7 +51303,7 @@
         <v>43529.342361111114</v>
       </c>
       <c r="Z186" s="13" t="str">
-        <f>LEFT(W186,3)</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
@@ -50136,7 +51345,7 @@
         <v>43528.354166666664</v>
       </c>
       <c r="Z187" s="13" t="str">
-        <f>LEFT(W187,3)</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
@@ -50181,7 +51390,7 @@
         <v>43524.724999999999</v>
       </c>
       <c r="Z188" s="13" t="str">
-        <f>LEFT(W188,3)</f>
+        <f t="shared" si="2"/>
         <v>7.1</v>
       </c>
     </row>
@@ -50223,7 +51432,7 @@
         <v>43524.618750000001</v>
       </c>
       <c r="Z189" s="13" t="str">
-        <f>LEFT(W189,3)</f>
+        <f t="shared" si="2"/>
         <v>7.1</v>
       </c>
     </row>
@@ -50265,7 +51474,7 @@
         <v>43523.410416666666</v>
       </c>
       <c r="Z190" s="13" t="str">
-        <f>LEFT(W190,3)</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
@@ -50307,7 +51516,7 @@
         <v>43522.611111111109</v>
       </c>
       <c r="Z191" s="13" t="str">
-        <f>LEFT(W191,3)</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
@@ -50349,7 +51558,7 @@
         <v>43522.461111111108</v>
       </c>
       <c r="Z192" s="13" t="str">
-        <f>LEFT(W192,3)</f>
+        <f t="shared" si="2"/>
         <v>6.7</v>
       </c>
     </row>
@@ -50394,7 +51603,7 @@
         <v>43521.737500000003</v>
       </c>
       <c r="Z193" s="13" t="str">
-        <f>LEFT(W193,3)</f>
+        <f t="shared" si="2"/>
         <v>7.3</v>
       </c>
     </row>
@@ -50436,7 +51645,7 @@
         <v>43521.55972222222</v>
       </c>
       <c r="Z194" s="13" t="str">
-        <f>LEFT(W194,3)</f>
+        <f t="shared" ref="Z194:Z257" si="3">LEFT(W194,3)</f>
         <v>7.5</v>
       </c>
     </row>
@@ -50478,7 +51687,7 @@
         <v>43518.609027777777</v>
       </c>
       <c r="Z195" s="13" t="str">
-        <f>LEFT(W195,3)</f>
+        <f t="shared" si="3"/>
         <v>6.7</v>
       </c>
     </row>
@@ -50520,7 +51729,7 @@
         <v>43517.680555555555</v>
       </c>
       <c r="Z196" s="13" t="str">
-        <f>LEFT(W196,3)</f>
+        <f t="shared" si="3"/>
         <v>7.1</v>
       </c>
     </row>
@@ -50568,7 +51777,7 @@
         <v>1485</v>
       </c>
       <c r="Z197" s="13" t="str">
-        <f>LEFT(W197,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -50619,7 +51828,7 @@
         <v>1485</v>
       </c>
       <c r="Z198" s="13" t="str">
-        <f>LEFT(W198,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -50661,7 +51870,7 @@
         <v>43516.320138888892</v>
       </c>
       <c r="Z199" s="13" t="str">
-        <f>LEFT(W199,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -50703,7 +51912,7 @@
         <v>43514.488888888889</v>
       </c>
       <c r="Z200" s="13" t="str">
-        <f>LEFT(W200,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -50745,7 +51954,7 @@
         <v>43511.532638888886</v>
       </c>
       <c r="Z201" s="13" t="str">
-        <f>LEFT(W201,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -50802,7 +52011,7 @@
         <v>43510.597222222219</v>
       </c>
       <c r="Z202" s="13" t="str">
-        <f>LEFT(W202,3)</f>
+        <f t="shared" si="3"/>
         <v>7.7</v>
       </c>
     </row>
@@ -50844,7 +52053,7 @@
         <v>43510.568749999999</v>
       </c>
       <c r="Z203" s="13" t="str">
-        <f>LEFT(W203,3)</f>
+        <f t="shared" si="3"/>
         <v>7.2</v>
       </c>
     </row>
@@ -50886,7 +52095,7 @@
         <v>43510.219444444447</v>
       </c>
       <c r="Z204" s="13" t="str">
-        <f>LEFT(W204,3)</f>
+        <f t="shared" si="3"/>
         <v>7.2</v>
       </c>
     </row>
@@ -50928,7 +52137,7 @@
         <v>43510.024305555555</v>
       </c>
       <c r="Z205" s="13" t="str">
-        <f>LEFT(W205,3)</f>
+        <f t="shared" si="3"/>
         <v>7.2</v>
       </c>
     </row>
@@ -50973,7 +52182,7 @@
         <v>43509.279861111114</v>
       </c>
       <c r="Z206" s="13" t="str">
-        <f>LEFT(W206,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -51018,7 +52227,7 @@
         <v>43507.470138888886</v>
       </c>
       <c r="Z207" s="13" t="str">
-        <f>LEFT(W207,3)</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
     </row>
@@ -51060,7 +52269,7 @@
         <v>43507.288194444445</v>
       </c>
       <c r="Z208" s="13" t="str">
-        <f>LEFT(W208,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -51108,7 +52317,7 @@
         <v>1485</v>
       </c>
       <c r="Z209" s="13" t="str">
-        <f>LEFT(W209,3)</f>
+        <f t="shared" si="3"/>
         <v>7.7</v>
       </c>
     </row>
@@ -51150,7 +52359,7 @@
         <v>43500.645833333336</v>
       </c>
       <c r="Z210" s="13" t="str">
-        <f>LEFT(W210,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -51192,7 +52401,7 @@
         <v>43497.385416666664</v>
       </c>
       <c r="Z211" s="13" t="str">
-        <f>LEFT(W211,3)</f>
+        <f t="shared" si="3"/>
         <v>7.2</v>
       </c>
     </row>
@@ -51234,7 +52443,7 @@
         <v>43497.178472222222</v>
       </c>
       <c r="Z212" s="13" t="str">
-        <f>LEFT(W212,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -51279,7 +52488,7 @@
         <v>43493.668749999997</v>
       </c>
       <c r="Z213" s="13" t="str">
-        <f>LEFT(W213,3)</f>
+        <f t="shared" si="3"/>
         <v>7.2</v>
       </c>
     </row>
@@ -51324,7 +52533,7 @@
         <v>43490.509722222225</v>
       </c>
       <c r="Z214" s="13" t="str">
-        <f>LEFT(W214,3)</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
     </row>
@@ -51366,7 +52575,7 @@
         <v>43489.311805555553</v>
       </c>
       <c r="Z215" s="13" t="str">
-        <f>LEFT(W215,3)</f>
+        <f t="shared" si="3"/>
         <v>7.3</v>
       </c>
     </row>
@@ -51408,7 +52617,7 @@
         <v>43488.567361111112</v>
       </c>
       <c r="Z216" s="13" t="str">
-        <f>LEFT(W216,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -51450,7 +52659,7 @@
         <v>43483.59097222222</v>
       </c>
       <c r="Z217" s="13" t="str">
-        <f>LEFT(W217,3)</f>
+        <f t="shared" si="3"/>
         <v>7.1</v>
       </c>
     </row>
@@ -51492,7 +52701,7 @@
         <v>43481.494444444441</v>
       </c>
       <c r="Z218" s="13" t="str">
-        <f>LEFT(W218,3)</f>
+        <f t="shared" si="3"/>
         <v>7.7</v>
       </c>
     </row>
@@ -51534,7 +52743,7 @@
         <v>43475.738888888889</v>
       </c>
       <c r="Z219" s="13" t="str">
-        <f>LEFT(W219,3)</f>
+        <f t="shared" si="3"/>
         <v>7.3</v>
       </c>
     </row>
@@ -51573,7 +52782,7 @@
         <v>43472.611805555556</v>
       </c>
       <c r="Z220" s="13" t="str">
-        <f>LEFT(W220,3)</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
     </row>
@@ -51615,7 +52824,7 @@
         <v>43472.476388888892</v>
       </c>
       <c r="Z221" s="13" t="str">
-        <f>LEFT(W221,3)</f>
+        <f t="shared" si="3"/>
         <v>7.1</v>
       </c>
     </row>
@@ -51660,7 +52869,7 @@
         <v>43466.958333333336</v>
       </c>
       <c r="Z222" s="13" t="str">
-        <f>LEFT(W222,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -51705,7 +52914,7 @@
         <v>43452.997916666667</v>
       </c>
       <c r="Z223" s="13" t="str">
-        <f>LEFT(W223,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -51747,7 +52956,7 @@
         <v>43447.146527777775</v>
       </c>
       <c r="Z224" s="13" t="str">
-        <f>LEFT(W224,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -51795,7 +53004,7 @@
         <v>43446.643055555556</v>
       </c>
       <c r="Z225" s="13" t="str">
-        <f>LEFT(W225,3)</f>
+        <f t="shared" si="3"/>
         <v>7.3</v>
       </c>
     </row>
@@ -51837,7 +53046,7 @@
         <v>43439.381249999999</v>
       </c>
       <c r="Z226" s="13" t="str">
-        <f>LEFT(W226,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -51879,7 +53088,7 @@
         <v>43438.500694444447</v>
       </c>
       <c r="Z227" s="13" t="str">
-        <f>LEFT(W227,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -51924,7 +53133,7 @@
         <v>43437.657638888886</v>
       </c>
       <c r="Z228" s="13" t="str">
-        <f>LEFT(W228,3)</f>
+        <f t="shared" si="3"/>
         <v>7.4</v>
       </c>
     </row>
@@ -51975,7 +53184,7 @@
         <v>43434.459027777775</v>
       </c>
       <c r="Z229" s="13" t="str">
-        <f>LEFT(W229,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -52023,7 +53232,7 @@
         <v>43432.688888888886</v>
       </c>
       <c r="Z230" s="13" t="str">
-        <f>LEFT(W230,3)</f>
+        <f t="shared" si="3"/>
         <v>7.2</v>
       </c>
     </row>
@@ -52065,7 +53274,7 @@
         <v>43426.561805555553</v>
       </c>
       <c r="Z231" s="13" t="str">
-        <f>LEFT(W231,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -52107,7 +53316,7 @@
         <v>43425.030555555553</v>
       </c>
       <c r="Z232" s="13" t="str">
-        <f>LEFT(W232,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -52149,7 +53358,7 @@
         <v>43424.727777777778</v>
       </c>
       <c r="Z233" s="13" t="str">
-        <f>LEFT(W233,3)</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
     </row>
@@ -52194,7 +53403,7 @@
         <v>43424.695833333331</v>
       </c>
       <c r="Z234" s="13" t="str">
-        <f>LEFT(W234,3)</f>
+        <f t="shared" si="3"/>
         <v>7.2</v>
       </c>
     </row>
@@ -52236,7 +53445,7 @@
         <v>43424.441666666666</v>
       </c>
       <c r="Z235" s="13" t="str">
-        <f>LEFT(W235,3)</f>
+        <f t="shared" si="3"/>
         <v>7.2</v>
       </c>
     </row>
@@ -52281,7 +53490,7 @@
         <v>43423.383333333331</v>
       </c>
       <c r="Z236" s="13" t="str">
-        <f>LEFT(W236,3)</f>
+        <f t="shared" si="3"/>
         <v>7.4</v>
       </c>
     </row>
@@ -52326,7 +53535,7 @@
         <v>43412.722916666666</v>
       </c>
       <c r="Z237" s="13" t="str">
-        <f>LEFT(W237,3)</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
     </row>
@@ -52368,7 +53577,7 @@
         <v>43409.559027777781</v>
       </c>
       <c r="Z238" s="13" t="str">
-        <f>LEFT(W238,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -52410,7 +53619,7 @@
         <v>43409.536805555559</v>
       </c>
       <c r="Z239" s="13" t="str">
-        <f>LEFT(W239,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -52452,7 +53661,7 @@
         <v>43403.142361111109</v>
       </c>
       <c r="Z240" s="13" t="str">
-        <f>LEFT(W240,3)</f>
+        <f t="shared" si="3"/>
         <v>7.4</v>
       </c>
     </row>
@@ -52503,7 +53712,7 @@
         <v>43389.644444444442</v>
       </c>
       <c r="Z241" s="13" t="str">
-        <f>LEFT(W241,3)</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
     </row>
@@ -52548,7 +53757,7 @@
         <v>43388.26666666667</v>
       </c>
       <c r="Z242" s="13" t="str">
-        <f>LEFT(W242,3)</f>
+        <f t="shared" si="3"/>
         <v>7.2</v>
       </c>
     </row>
@@ -52590,7 +53799,7 @@
         <v>43384.22152777778</v>
       </c>
       <c r="Z243" s="13" t="str">
-        <f>LEFT(W243,3)</f>
+        <f t="shared" si="3"/>
         <v>7.4</v>
       </c>
     </row>
@@ -52638,7 +53847,7 @@
         <v>43384.027777777781</v>
       </c>
       <c r="Z244" s="13" t="str">
-        <f>LEFT(W244,3)</f>
+        <f t="shared" si="3"/>
         <v>6.7</v>
       </c>
     </row>
@@ -52683,7 +53892,7 @@
         <v>43383.504166666666</v>
       </c>
       <c r="Z245" s="13" t="str">
-        <f>LEFT(W245,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -52731,7 +53940,7 @@
         <v>43363.686111111114</v>
       </c>
       <c r="Z246" s="13" t="str">
-        <f>LEFT(W246,3)</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
     </row>
@@ -52776,7 +53985,7 @@
         <v>43363.611805555556</v>
       </c>
       <c r="Z247" s="13" t="str">
-        <f>LEFT(W247,3)</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
     </row>
@@ -52818,7 +54027,7 @@
         <v>43360.711111111108</v>
       </c>
       <c r="Z248" s="13" t="str">
-        <f>LEFT(W248,3)</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
     </row>
@@ -52860,7 +54069,7 @@
         <v>43357.071527777778</v>
       </c>
       <c r="Z249" s="13" t="str">
-        <f>LEFT(W249,3)</f>
+        <f t="shared" si="3"/>
         <v>6.7</v>
       </c>
     </row>
@@ -52902,7 +54111,7 @@
         <v>43356.14166666667</v>
       </c>
       <c r="Z250" s="13" t="str">
-        <f>LEFT(W250,3)</f>
+        <f t="shared" si="3"/>
         <v>7.4</v>
       </c>
     </row>
@@ -52944,7 +54153,7 @@
         <v>43353.369444444441</v>
       </c>
       <c r="Z251" s="13" t="str">
-        <f>LEFT(W251,3)</f>
+        <f t="shared" si="3"/>
         <v>7.1</v>
       </c>
     </row>
@@ -52986,7 +54195,7 @@
         <v>43347.49722222222</v>
       </c>
       <c r="Z252" s="13" t="str">
-        <f>LEFT(W252,3)</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
     </row>
@@ -53031,7 +54240,7 @@
         <v>43345.847916666666</v>
       </c>
       <c r="Z253" s="13" t="str">
-        <f>LEFT(W253,3)</f>
+        <f t="shared" si="3"/>
         <v>7.4</v>
       </c>
     </row>
@@ -53082,7 +54291,7 @@
         <v>43343.792361111111</v>
       </c>
       <c r="Z254" s="13" t="str">
-        <f>LEFT(W254,3)</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
     </row>
@@ -53124,7 +54333,7 @@
         <v>43343.379861111112</v>
       </c>
       <c r="Z255" s="13" t="str">
-        <f>LEFT(W255,3)</f>
+        <f t="shared" si="3"/>
         <v>7.4</v>
       </c>
     </row>
@@ -53166,7 +54375,7 @@
         <v>43343.322222222225</v>
       </c>
       <c r="Z256" s="13" t="str">
-        <f>LEFT(W256,3)</f>
+        <f t="shared" si="3"/>
         <v>6.7</v>
       </c>
     </row>
@@ -53208,7 +54417,7 @@
         <v>43342.380555555559</v>
       </c>
       <c r="Z257" s="13" t="str">
-        <f>LEFT(W257,3)</f>
+        <f t="shared" si="3"/>
         <v>6.7</v>
       </c>
     </row>
@@ -53250,7 +54459,7 @@
         <v>43342.362500000003</v>
       </c>
       <c r="Z258" s="13" t="str">
-        <f>LEFT(W258,3)</f>
+        <f t="shared" ref="Z258:Z315" si="4">LEFT(W258,3)</f>
         <v>7.4</v>
       </c>
     </row>
@@ -53292,7 +54501,7 @@
         <v>43341.724999999999</v>
       </c>
       <c r="Z259" s="13" t="str">
-        <f>LEFT(W259,3)</f>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
@@ -53334,7 +54543,7 @@
         <v>43341.695833333331</v>
       </c>
       <c r="Z260" s="13" t="str">
-        <f>LEFT(W260,3)</f>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
@@ -53376,7 +54585,7 @@
         <v>43341.693055555559</v>
       </c>
       <c r="Z261" s="13" t="str">
-        <f>LEFT(W261,3)</f>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
@@ -53418,7 +54627,7 @@
         <v>43341.683333333334</v>
       </c>
       <c r="Z262" s="13" t="str">
-        <f>LEFT(W262,3)</f>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
@@ -53463,7 +54672,7 @@
         <v>43341.611111111109</v>
       </c>
       <c r="Z263" s="13" t="str">
-        <f>LEFT(W263,3)</f>
+        <f t="shared" si="4"/>
         <v>7.6</v>
       </c>
     </row>
@@ -53505,7 +54714,7 @@
         <v>43339.370138888888</v>
       </c>
       <c r="Z264" s="13" t="str">
-        <f>LEFT(W264,3)</f>
+        <f t="shared" si="4"/>
         <v>6.7</v>
       </c>
     </row>
@@ -53553,7 +54762,7 @@
         <v>43333.388194444444</v>
       </c>
       <c r="Z265" s="13" t="str">
-        <f>LEFT(W265,3)</f>
+        <f t="shared" si="4"/>
         <v>7.7</v>
       </c>
     </row>
@@ -53598,7 +54807,7 @@
         <v>43333.240972222222</v>
       </c>
       <c r="Z266" s="13" t="str">
-        <f>LEFT(W266,3)</f>
+        <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
     </row>
@@ -53640,7 +54849,7 @@
         <v>43325.282638888886</v>
       </c>
       <c r="Z267" s="13" t="str">
-        <f>LEFT(W267,3)</f>
+        <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
     </row>
@@ -53685,7 +54894,7 @@
         <v>43321.76458333333</v>
       </c>
       <c r="Z268" s="13" t="str">
-        <f>LEFT(W268,3)</f>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
@@ -53730,7 +54939,7 @@
         <v>43321.763888888891</v>
       </c>
       <c r="Z269" s="13" t="str">
-        <f>LEFT(W269,3)</f>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
@@ -53772,7 +54981,7 @@
         <v>43321.510416666664</v>
       </c>
       <c r="Z270" s="13" t="str">
-        <f>LEFT(W270,3)</f>
+        <f t="shared" si="4"/>
         <v>6.1</v>
       </c>
     </row>
@@ -53814,7 +55023,7 @@
         <v>43314.53125</v>
       </c>
       <c r="Z271" s="13" t="str">
-        <f>LEFT(W271,3)</f>
+        <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
     </row>
@@ -53859,7 +55068,7 @@
         <v>43305.410416666666</v>
       </c>
       <c r="Z272" s="13" t="str">
-        <f>LEFT(W272,3)</f>
+        <f t="shared" si="4"/>
         <v>7.6</v>
       </c>
     </row>
@@ -53907,7 +55116,7 @@
         <v>43304.174305555556</v>
       </c>
       <c r="Z273" s="13" t="str">
-        <f>LEFT(W273,3)</f>
+        <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
     </row>
@@ -53952,7 +55161,7 @@
         <v>43297.70416666667</v>
       </c>
       <c r="Z274" s="13" t="str">
-        <f>LEFT(W274,3)</f>
+        <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
     </row>
@@ -54000,7 +55209,7 @@
         <v>43293.259722222225</v>
       </c>
       <c r="Z275" s="13" t="str">
-        <f>LEFT(W275,3)</f>
+        <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
     </row>
@@ -54054,7 +55263,7 @@
         <v>43292.365972222222</v>
       </c>
       <c r="Z276" s="13" t="str">
-        <f>LEFT(W276,3)</f>
+        <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
     </row>
@@ -54096,7 +55305,7 @@
         <v>43287.21597222222</v>
       </c>
       <c r="Z277" s="13" t="str">
-        <f>LEFT(W277,3)</f>
+        <f t="shared" si="4"/>
         <v>6.6</v>
       </c>
     </row>
@@ -54138,7 +55347,7 @@
         <v>43279.741666666669</v>
       </c>
       <c r="Z278" s="13" t="str">
-        <f>LEFT(W278,3)</f>
+        <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
     </row>
@@ -54180,7 +55389,7 @@
         <v>43266.717361111114</v>
       </c>
       <c r="Z279" s="13" t="str">
-        <f>LEFT(W279,3)</f>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
@@ -54222,7 +55431,7 @@
         <v>43263.434027777781</v>
       </c>
       <c r="Z280" s="13" t="str">
-        <f>LEFT(W280,3)</f>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
@@ -54264,7 +55473,7 @@
         <v>43262.84097222222</v>
       </c>
       <c r="Z281" s="13" t="str">
-        <f>LEFT(W281,3)</f>
+        <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
     </row>
@@ -54306,7 +55515,7 @@
         <v>43256.176388888889</v>
       </c>
       <c r="Z282" s="13" t="str">
-        <f>LEFT(W282,3)</f>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
@@ -54360,7 +55569,7 @@
         <v>43251.433333333334</v>
       </c>
       <c r="Z283" s="13" t="str">
-        <f>LEFT(W283,3)</f>
+        <f t="shared" si="4"/>
         <v>7.1</v>
       </c>
     </row>
@@ -54402,7 +55611,7 @@
         <v>43242.177083333336</v>
       </c>
       <c r="Z284" s="13" t="str">
-        <f>LEFT(W284,3)</f>
+        <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
     </row>
@@ -54447,7 +55656,7 @@
         <v>43241.831250000003</v>
       </c>
       <c r="Z285" s="13" t="str">
-        <f>LEFT(W285,3)</f>
+        <f t="shared" si="4"/>
         <v>7.3</v>
       </c>
     </row>
@@ -54492,7 +55701,7 @@
         <v>43235.717361111114</v>
       </c>
       <c r="Z286" s="13" t="str">
-        <f>LEFT(W286,3)</f>
+        <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
     </row>
@@ -54537,7 +55746,7 @@
         <v>43234.570138888892</v>
       </c>
       <c r="Z287" s="13" t="str">
-        <f>LEFT(W287,3)</f>
+        <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
     </row>
@@ -54579,7 +55788,7 @@
         <v>43222.796527777777</v>
       </c>
       <c r="Z288" s="13" t="str">
-        <f>LEFT(W288,3)</f>
+        <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
     </row>
@@ -54621,7 +55830,7 @@
         <v>43222.436111111114</v>
       </c>
       <c r="Z289" s="13" t="str">
-        <f>LEFT(W289,3)</f>
+        <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
     </row>
@@ -54666,7 +55875,7 @@
         <v>43220.845833333333</v>
       </c>
       <c r="Z290" s="13" t="str">
-        <f>LEFT(W290,3)</f>
+        <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
     </row>
@@ -54711,7 +55920,7 @@
         <v>43214.628472222219</v>
       </c>
       <c r="Z291" s="13" t="str">
-        <f>LEFT(W291,3)</f>
+        <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
     </row>
@@ -54753,7 +55962,7 @@
         <v>43212.823611111111</v>
       </c>
       <c r="Z292" s="13" t="str">
-        <f>LEFT(W292,3)</f>
+        <f t="shared" si="4"/>
         <v>7.3</v>
       </c>
     </row>
@@ -54795,7 +56004,7 @@
         <v>43212.816666666666</v>
       </c>
       <c r="Z293" s="13" t="str">
-        <f>LEFT(W293,3)</f>
+        <f t="shared" si="4"/>
         <v>7.3</v>
       </c>
     </row>
@@ -54837,7 +56046,7 @@
         <v>43210.412499999999</v>
       </c>
       <c r="Z294" s="13" t="str">
-        <f>LEFT(W294,3)</f>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
@@ -54882,7 +56091,7 @@
         <v>43207.633333333331</v>
       </c>
       <c r="Z295" s="13" t="str">
-        <f>LEFT(W295,3)</f>
+        <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
     </row>
@@ -54936,7 +56145,7 @@
         <v>1485</v>
       </c>
       <c r="Z296" s="13" t="str">
-        <f>LEFT(W296,3)</f>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
@@ -54978,7 +56187,7 @@
         <v>43175.351388888892</v>
       </c>
       <c r="Z297" s="13" t="str">
-        <f>LEFT(W297,3)</f>
+        <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
     </row>
@@ -55020,7 +56229,7 @@
         <v>43173.365277777775</v>
       </c>
       <c r="Z298" s="13" t="str">
-        <f>LEFT(W298,3)</f>
+        <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
     </row>
@@ -55068,7 +56277,7 @@
         <v>1485</v>
       </c>
       <c r="Z299" s="13" t="str">
-        <f>LEFT(W299,3)</f>
+        <f t="shared" si="4"/>
         <v>7.6</v>
       </c>
     </row>
@@ -55113,7 +56322,7 @@
         <v>43167.802083333336</v>
       </c>
       <c r="Z300" s="13" t="str">
-        <f>LEFT(W300,3)</f>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
@@ -55170,7 +56379,7 @@
         <v>43167.611805555556</v>
       </c>
       <c r="Z301" s="13" t="str">
-        <f>LEFT(W301,3)</f>
+        <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
     </row>
@@ -55212,7 +56421,7 @@
         <v>43167.584027777775</v>
       </c>
       <c r="Z302" s="13" t="str">
-        <f>LEFT(W302,3)</f>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
@@ -55254,7 +56463,7 @@
         <v>43165.282638888886</v>
       </c>
       <c r="Z303" s="13" t="str">
-        <f>LEFT(W303,3)</f>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
@@ -55299,7 +56508,7 @@
         <v>43164.571527777778</v>
       </c>
       <c r="Z304" s="13" t="str">
-        <f>LEFT(W304,3)</f>
+        <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
     </row>
@@ -55344,7 +56553,7 @@
         <v>43151.703472222223</v>
       </c>
       <c r="Z305" s="13" t="str">
-        <f>LEFT(W305,3)</f>
+        <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
     </row>
@@ -55386,7 +56595,7 @@
         <v>43151.393750000003</v>
       </c>
       <c r="Z306" s="13" t="str">
-        <f>LEFT(W306,3)</f>
+        <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
     </row>
@@ -55437,7 +56646,7 @@
         <v>43149.947222222225</v>
       </c>
       <c r="Z307" s="13" t="str">
-        <f>LEFT(W307,3)</f>
+        <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
     </row>
@@ -55485,7 +56694,7 @@
         <v>43140.426388888889</v>
       </c>
       <c r="Z308" s="13" t="str">
-        <f>LEFT(W308,3)</f>
+        <f t="shared" si="4"/>
         <v>6.7</v>
       </c>
     </row>
@@ -55539,7 +56748,7 @@
         <v>43132.660416666666</v>
       </c>
       <c r="Z309" s="13" t="str">
-        <f>LEFT(W309,3)</f>
+        <f t="shared" si="4"/>
         <v>7.1</v>
       </c>
     </row>
@@ -55581,7 +56790,7 @@
         <v>43131.592361111114</v>
       </c>
       <c r="Z310" s="13" t="str">
-        <f>LEFT(W310,3)</f>
+        <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
     </row>
@@ -55626,7 +56835,7 @@
         <v>43119.692361111112</v>
       </c>
       <c r="Z311" s="13" t="str">
-        <f>LEFT(W311,3)</f>
+        <f t="shared" si="4"/>
         <v>7.1</v>
       </c>
     </row>
@@ -55668,7 +56877,7 @@
         <v>43112.847222222219</v>
       </c>
       <c r="Z312" s="13" t="str">
-        <f>LEFT(W312,3)</f>
+        <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
     </row>
@@ -55716,7 +56925,7 @@
         <v>1485</v>
       </c>
       <c r="Z313" s="13" t="str">
-        <f>LEFT(W313,3)</f>
+        <f t="shared" si="4"/>
         <v>7.0</v>
       </c>
     </row>
@@ -55761,7 +56970,7 @@
         <v>43105.665972222225</v>
       </c>
       <c r="Z314" s="13" t="str">
-        <f>LEFT(W314,3)</f>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
@@ -55806,7 +57015,7 @@
         <v>43090.261111111111</v>
       </c>
       <c r="Z315" s="13" t="str">
-        <f>LEFT(W315,3)</f>
+        <f t="shared" si="4"/>
         <v>6.1</v>
       </c>
     </row>

--- a/CA/JIRA/Plat Defects - Post Releases 7.6_7.7_7.8_8.0 cf v1-3 Found In Build Flag 280220.xlsx
+++ b/CA/JIRA/Plat Defects - Post Releases 7.6_7.7_7.8_8.0 cf v1-3 Found In Build Flag 280220.xlsx
@@ -20,13 +20,13 @@
   <calcPr calcId="145621"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="25" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7799" uniqueCount="1668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7760" uniqueCount="1668">
   <si>
     <t>Issue Type</t>
   </si>
@@ -5529,7 +5529,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5556,12 +5556,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5803,8 +5797,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="244553984"/>
-        <c:axId val="244568448"/>
+        <c:axId val="448453248"/>
+        <c:axId val="448340736"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5981,11 +5975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="244576256"/>
-        <c:axId val="244570368"/>
+        <c:axId val="448348544"/>
+        <c:axId val="448342656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="244553984"/>
+        <c:axId val="448453248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6013,7 +6007,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244568448"/>
+        <c:crossAx val="448340736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6021,7 +6015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244568448"/>
+        <c:axId val="448340736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6055,12 +6049,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244553984"/>
+        <c:crossAx val="448453248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244570368"/>
+        <c:axId val="448342656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6070,12 +6064,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244576256"/>
+        <c:crossAx val="448348544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="244576256"/>
+        <c:axId val="448348544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6085,7 +6079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244570368"/>
+        <c:crossAx val="448342656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7060,11 +7054,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="245222784"/>
-        <c:axId val="245232768"/>
+        <c:axId val="448884736"/>
+        <c:axId val="448886272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="245222784"/>
+        <c:axId val="448884736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7073,7 +7067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245232768"/>
+        <c:crossAx val="448886272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7081,7 +7075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245232768"/>
+        <c:axId val="448886272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7092,7 +7086,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245222784"/>
+        <c:crossAx val="448884736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7139,7 +7133,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7240,8 +7233,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="244993408"/>
-        <c:axId val="244999680"/>
+        <c:axId val="448925696"/>
+        <c:axId val="448927616"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7323,25 +7316,24 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="244993408"/>
-        <c:axId val="244999680"/>
+        <c:axId val="448925696"/>
+        <c:axId val="448927616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="244993408"/>
+        <c:axId val="448925696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244999680"/>
+        <c:crossAx val="448927616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7349,7 +7341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244999680"/>
+        <c:axId val="448927616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7357,21 +7349,19 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244993408"/>
+        <c:crossAx val="448925696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -24288,8 +24278,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB3:AC61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB3:AC17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="26">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -24754,12 +24744,12 @@
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
         <item sd="0" x="6"/>
-        <item x="1"/>
+        <item sd="0" x="1"/>
         <item sd="0" x="5"/>
-        <item x="0"/>
-        <item x="7"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="7"/>
         <item sd="0" m="1" x="13"/>
-        <item x="9"/>
+        <item sd="0" x="9"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -24768,7 +24758,7 @@
     <field x="19"/>
     <field x="23"/>
   </rowFields>
-  <rowItems count="58">
+  <rowItems count="14">
     <i>
       <x/>
     </i>
@@ -24796,149 +24786,17 @@
     <i>
       <x v="8"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x v="229"/>
-    </i>
     <i>
       <x v="9"/>
     </i>
     <i>
       <x v="10"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="103"/>
-    </i>
     <i>
       <x v="11"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="179"/>
-    </i>
     <i>
       <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="231"/>
     </i>
     <i t="grand">
       <x/>
@@ -42676,8 +42534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X10" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42699,7 +42557,7 @@
     <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.6640625" customWidth="1"/>
+    <col min="28" max="28" width="12.5546875" customWidth="1"/>
     <col min="29" max="29" width="17.77734375" customWidth="1"/>
     <col min="30" max="30" width="17" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="16" customWidth="1"/>
@@ -43331,7 +43189,9 @@
       <c r="AB12" s="5" t="s">
         <v>1657</v>
       </c>
-      <c r="AC12" s="6"/>
+      <c r="AC12" s="6">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -43377,11 +43237,11 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB13" s="14" t="s">
-        <v>86</v>
+      <c r="AB13" s="5" t="s">
+        <v>1658</v>
       </c>
       <c r="AC13" s="6">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
@@ -43425,11 +43285,11 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB14" s="14" t="s">
-        <v>66</v>
+      <c r="AB14" s="5" t="s">
+        <v>1659</v>
       </c>
       <c r="AC14" s="6">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
@@ -43473,11 +43333,11 @@
         <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="AB15" s="14" t="s">
-        <v>1313</v>
+      <c r="AB15" s="5" t="s">
+        <v>1660</v>
       </c>
       <c r="AC15" s="6">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
@@ -43524,11 +43384,11 @@
         <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="AB16" s="14" t="s">
-        <v>82</v>
+      <c r="AB16" s="5" t="s">
+        <v>1664</v>
       </c>
       <c r="AC16" s="6">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
@@ -43572,11 +43432,11 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="AB17" s="14" t="s">
-        <v>74</v>
+      <c r="AB17" s="5" t="s">
+        <v>1343</v>
       </c>
       <c r="AC17" s="6">
-        <v>2</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
@@ -43620,12 +43480,6 @@
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-      <c r="AB18" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC18" s="6">
-        <v>2</v>
-      </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -43668,12 +43522,6 @@
         <f t="shared" si="0"/>
         <v>7.1</v>
       </c>
-      <c r="AB19" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC19" s="6">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -43716,12 +43564,6 @@
         <f t="shared" si="0"/>
         <v>8.0</v>
       </c>
-      <c r="AB20" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC20" s="6">
-        <v>6</v>
-      </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -43764,12 +43606,6 @@
         <f t="shared" si="0"/>
         <v>8.0</v>
       </c>
-      <c r="AB21" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC21" s="6">
-        <v>2</v>
-      </c>
       <c r="AE21" s="7" t="s">
         <v>1345</v>
       </c>
@@ -43821,12 +43657,6 @@
         <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
-      <c r="AB22" s="15">
-        <v>43151.393750000003</v>
-      </c>
-      <c r="AC22" s="6">
-        <v>1</v>
-      </c>
       <c r="AE22" s="5">
         <v>7.5</v>
       </c>
@@ -43881,12 +43711,6 @@
         <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
-      <c r="AB23" s="15">
-        <v>43696.527777777781</v>
-      </c>
-      <c r="AC23" s="6">
-        <v>1</v>
-      </c>
       <c r="AE23" s="5">
         <v>7.6</v>
       </c>
@@ -43941,12 +43765,6 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB24" s="5" t="s">
-        <v>1658</v>
-      </c>
-      <c r="AC24" s="6">
-        <v>49</v>
-      </c>
       <c r="AE24" s="5">
         <v>7.7</v>
       </c>
@@ -43998,10 +43816,6 @@
         <f t="shared" si="0"/>
         <v>8.0</v>
       </c>
-      <c r="AB25" s="5" t="s">
-        <v>1659</v>
-      </c>
-      <c r="AC25" s="6"/>
       <c r="AE25" s="12">
         <v>8</v>
       </c>
@@ -44053,12 +43867,6 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB26" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC26" s="6">
-        <v>6</v>
-      </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -44101,12 +43909,6 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB27" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC27" s="6">
-        <v>16</v>
-      </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -44149,12 +43951,6 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB28" s="14" t="s">
-        <v>1313</v>
-      </c>
-      <c r="AC28" s="6">
-        <v>6</v>
-      </c>
       <c r="AE28" t="s">
         <v>1665</v>
       </c>
@@ -44203,12 +43999,6 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB29" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="AC29" s="6">
-        <v>4</v>
-      </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -44251,12 +44041,6 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB30" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC30" s="6">
-        <v>3</v>
-      </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -44302,12 +44086,6 @@
         <f t="shared" si="0"/>
         <v>8.0</v>
       </c>
-      <c r="AB31" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC31" s="6">
-        <v>5</v>
-      </c>
       <c r="AE31" t="s">
         <v>1345</v>
       </c>
@@ -44362,12 +44140,6 @@
         <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="AB32" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC32" s="6">
-        <v>8</v>
-      </c>
       <c r="AE32">
         <v>7.5</v>
       </c>
@@ -44419,12 +44191,6 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB33" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC33" s="6">
-        <v>10</v>
-      </c>
       <c r="AE33">
         <v>7.6</v>
       </c>
@@ -44476,12 +44242,6 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB34" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC34" s="6">
-        <v>3</v>
-      </c>
       <c r="AE34">
         <v>7.7</v>
       </c>
@@ -44533,12 +44293,6 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB35" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC35" s="6">
-        <v>23</v>
-      </c>
       <c r="AE35" s="13">
         <v>8</v>
       </c>
@@ -44590,12 +44344,6 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB36" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC36" s="6">
-        <v>1</v>
-      </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -44638,12 +44386,6 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB37" s="15">
-        <v>43497.178472222222</v>
-      </c>
-      <c r="AC37" s="6">
-        <v>1</v>
-      </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -44692,10 +44434,6 @@
         <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="AB38" s="5" t="s">
-        <v>1660</v>
-      </c>
-      <c r="AC38" s="6"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -44738,12 +44476,6 @@
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-      <c r="AB39" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC39" s="6">
-        <v>5</v>
-      </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -44786,12 +44518,6 @@
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-      <c r="AB40" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC40" s="6">
-        <v>8</v>
-      </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -44840,12 +44566,6 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB41" s="14" t="s">
-        <v>1313</v>
-      </c>
-      <c r="AC41" s="6">
-        <v>2</v>
-      </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -44888,12 +44608,6 @@
         <f t="shared" si="0"/>
         <v>8.0</v>
       </c>
-      <c r="AB42" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="AC42" s="6">
-        <v>1</v>
-      </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -44945,12 +44659,6 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB43" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC43" s="6">
-        <v>1</v>
-      </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -44993,12 +44701,6 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="AB44" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC44" s="6">
-        <v>2</v>
-      </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -45041,12 +44743,6 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB45" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC45" s="6">
-        <v>3</v>
-      </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -45089,12 +44785,6 @@
         <f t="shared" si="0"/>
         <v>8.0</v>
       </c>
-      <c r="AB46" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC46" s="6">
-        <v>2</v>
-      </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -45137,12 +44827,6 @@
         <f t="shared" si="0"/>
         <v>8.0</v>
       </c>
-      <c r="AB47" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC47" s="6">
-        <v>18</v>
-      </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -45185,14 +44869,8 @@
         <f t="shared" si="0"/>
         <v>7.0</v>
       </c>
-      <c r="AB48" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC48" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -45233,14 +44911,8 @@
         <f t="shared" si="0"/>
         <v>6.1</v>
       </c>
-      <c r="AB49" s="15">
-        <v>43605.65</v>
-      </c>
-      <c r="AC49" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -45281,12 +44953,8 @@
         <f t="shared" si="0"/>
         <v>8.0</v>
       </c>
-      <c r="AB50" s="5" t="s">
-        <v>1664</v>
-      </c>
-      <c r="AC50" s="6"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -45327,14 +44995,8 @@
         <f t="shared" si="0"/>
         <v>8.0</v>
       </c>
-      <c r="AB51" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC51" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -45375,14 +45037,8 @@
         <f t="shared" si="0"/>
         <v>8.0</v>
       </c>
-      <c r="AB52" s="14" t="s">
-        <v>1313</v>
-      </c>
-      <c r="AC52" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -45426,14 +45082,8 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB53" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC53" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -45474,14 +45124,8 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="AB54" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC54" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -45522,14 +45166,8 @@
         <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="AB55" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC55" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -45573,14 +45211,8 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB56" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC56" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -45621,14 +45253,8 @@
         <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="AB57" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC57" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -45666,14 +45292,8 @@
         <f t="shared" si="0"/>
         <v>8.0</v>
       </c>
-      <c r="AB58" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC58" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -45714,14 +45334,8 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB59" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC59" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -45762,14 +45376,8 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="AB60" s="15">
-        <v>43696.691666666666</v>
-      </c>
-      <c r="AC60" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -45816,14 +45424,8 @@
         <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="AB61" s="5" t="s">
-        <v>1343</v>
-      </c>
-      <c r="AC61" s="6">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -45868,7 +45470,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -45913,7 +45515,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>10</v>
       </c>
